--- a/Business_Activity_Lookup.xlsx
+++ b/Business_Activity_Lookup.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\x02207\Desktop\check_lookups\BusinessActivity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96DF2779-E016-4A88-8DAB-50920AEDA7A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{794F95DD-AFFA-405D-8A7D-D40094DA58ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="12600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Business_Activity" sheetId="1" r:id="rId1"/>
+    <sheet name="Business_Activity_Διορθώσεις" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Business_Activity!$A$2:$I$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Business_Activity!$A$2:$I$101</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Business_Activity_Διορθώσεις!$A$2:$I$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="310">
   <si>
     <t>Key</t>
   </si>
@@ -959,6 +961,15 @@
   </si>
   <si>
     <t>Value</t>
+  </si>
+  <si>
+    <t>0820013</t>
+  </si>
+  <si>
+    <t>Μισθ. Μεταφ. Μέσων</t>
+  </si>
+  <si>
+    <t>0820008</t>
   </si>
 </sst>
 </file>
@@ -1073,7 +1084,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -1494,11 +1505,95 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1510,15 +1605,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1551,16 +1637,16 @@
     <xf numFmtId="1" fontId="1" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1569,11 +1655,31 @@
     <xf numFmtId="1" fontId="5" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1581,17 +1687,51 @@
     <xf numFmtId="49" fontId="2" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="10" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="10" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="5" fillId="10" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="5" fillId="10" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1872,10 +2012,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H91" sqref="H91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1887,25 +2028,25 @@
     <col min="5" max="5" width="40.85546875" style="1" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="16.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="46.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.7109375" style="42" customWidth="1"/>
+    <col min="8" max="8" width="19.7109375" style="37" customWidth="1"/>
     <col min="9" max="9" width="26.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="46" t="s">
         <v>304</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="10"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="48"/>
       <c r="E1" s="7"/>
-      <c r="F1" s="40" t="s">
+      <c r="F1" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="41"/>
+      <c r="G1" s="50"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="22" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -1914,10 +2055,10 @@
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="18" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="3" t="s">
@@ -1926,2779 +2067,2784 @@
       <c r="G2" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="H2" s="43" t="s">
+      <c r="H2" s="38" t="s">
         <v>3</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
+    <row r="3" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
         <v>1</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="30">
+      <c r="D3" s="27">
         <v>1</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="37">
+      <c r="F3" s="34">
         <v>1</v>
       </c>
-      <c r="G3" s="47" t="s">
+      <c r="G3" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="44" t="str">
+      <c r="H3" s="39" t="str">
         <f>IF(D3=F3,"MATCH","NOT MATCHED")</f>
         <v>MATCH</v>
       </c>
-      <c r="I3" s="34"/>
-    </row>
-    <row r="4" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
+      <c r="I3" s="31"/>
+    </row>
+    <row r="4" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
         <v>2</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="31">
+      <c r="D4" s="28">
         <v>2</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="37">
+      <c r="F4" s="34">
         <v>2</v>
       </c>
-      <c r="G4" s="48" t="s">
+      <c r="G4" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="45" t="str">
+      <c r="H4" s="40" t="str">
         <f t="shared" ref="H4:H67" si="0">IF(D4=F4,"MATCH","NOT MATCHED")</f>
         <v>MATCH</v>
       </c>
-      <c r="I4" s="35"/>
-    </row>
-    <row r="5" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13">
+      <c r="I4" s="32"/>
+    </row>
+    <row r="5" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
         <v>3</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="31">
+      <c r="D5" s="28">
         <v>3</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="37">
+      <c r="F5" s="34">
         <v>3</v>
       </c>
-      <c r="G5" s="48" t="s">
+      <c r="G5" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="45" t="str">
-        <f t="shared" si="0"/>
-        <v>MATCH</v>
-      </c>
-      <c r="I5" s="35"/>
-    </row>
-    <row r="6" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13">
+      <c r="H5" s="40" t="str">
+        <f t="shared" si="0"/>
+        <v>MATCH</v>
+      </c>
+      <c r="I5" s="32"/>
+    </row>
+    <row r="6" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
         <v>4</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="31">
+      <c r="D6" s="28">
         <v>4</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="37">
+      <c r="F6" s="34">
         <v>4</v>
       </c>
-      <c r="G6" s="48" t="s">
+      <c r="G6" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="45" t="str">
-        <f t="shared" si="0"/>
-        <v>MATCH</v>
-      </c>
-      <c r="I6" s="35"/>
-    </row>
-    <row r="7" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13">
+      <c r="H6" s="40" t="str">
+        <f t="shared" si="0"/>
+        <v>MATCH</v>
+      </c>
+      <c r="I6" s="32"/>
+    </row>
+    <row r="7" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
         <v>5</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="31">
+      <c r="D7" s="28">
         <v>5</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="37">
+      <c r="F7" s="34">
         <v>5</v>
       </c>
-      <c r="G7" s="48" t="s">
+      <c r="G7" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="45" t="str">
-        <f t="shared" si="0"/>
-        <v>MATCH</v>
-      </c>
-      <c r="I7" s="35"/>
-    </row>
-    <row r="8" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13">
+      <c r="H7" s="40" t="str">
+        <f t="shared" si="0"/>
+        <v>MATCH</v>
+      </c>
+      <c r="I7" s="32"/>
+    </row>
+    <row r="8" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
         <v>6</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="31">
+      <c r="D8" s="28">
         <v>6</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="37">
+      <c r="F8" s="34">
         <v>6</v>
       </c>
-      <c r="G8" s="48" t="s">
+      <c r="G8" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="45" t="str">
-        <f t="shared" si="0"/>
-        <v>MATCH</v>
-      </c>
-      <c r="I8" s="35"/>
-    </row>
-    <row r="9" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13">
+      <c r="H8" s="40" t="str">
+        <f t="shared" si="0"/>
+        <v>MATCH</v>
+      </c>
+      <c r="I8" s="32"/>
+    </row>
+    <row r="9" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
         <v>7</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="31">
+      <c r="D9" s="28">
         <v>7</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="37">
+      <c r="F9" s="34">
         <v>7</v>
       </c>
-      <c r="G9" s="48" t="s">
+      <c r="G9" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="45" t="str">
-        <f t="shared" si="0"/>
-        <v>MATCH</v>
-      </c>
-      <c r="I9" s="35"/>
-    </row>
-    <row r="10" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="13">
+      <c r="H9" s="40" t="str">
+        <f t="shared" si="0"/>
+        <v>MATCH</v>
+      </c>
+      <c r="I9" s="32"/>
+    </row>
+    <row r="10" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
         <v>8</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="31">
+      <c r="D10" s="28">
         <v>8</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="37">
+      <c r="F10" s="34">
         <v>8</v>
       </c>
-      <c r="G10" s="48" t="s">
+      <c r="G10" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="45" t="str">
-        <f t="shared" si="0"/>
-        <v>MATCH</v>
-      </c>
-      <c r="I10" s="35"/>
-    </row>
-    <row r="11" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="13">
+      <c r="H10" s="40" t="str">
+        <f t="shared" si="0"/>
+        <v>MATCH</v>
+      </c>
+      <c r="I10" s="32"/>
+    </row>
+    <row r="11" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
         <v>9</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="31">
+      <c r="D11" s="28">
         <v>9</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="E11" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="37">
+      <c r="F11" s="34">
         <v>9</v>
       </c>
-      <c r="G11" s="48" t="s">
+      <c r="G11" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="H11" s="45" t="str">
-        <f t="shared" si="0"/>
-        <v>MATCH</v>
-      </c>
-      <c r="I11" s="35"/>
-    </row>
-    <row r="12" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="13">
+      <c r="H11" s="40" t="str">
+        <f t="shared" si="0"/>
+        <v>MATCH</v>
+      </c>
+      <c r="I11" s="32"/>
+    </row>
+    <row r="12" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
         <v>10</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="31">
+      <c r="D12" s="28">
         <v>10</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="37">
+      <c r="F12" s="34">
         <v>10</v>
       </c>
-      <c r="G12" s="48" t="s">
+      <c r="G12" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="H12" s="45" t="str">
-        <f t="shared" si="0"/>
-        <v>MATCH</v>
-      </c>
-      <c r="I12" s="35"/>
-    </row>
-    <row r="13" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13">
+      <c r="H12" s="40" t="str">
+        <f t="shared" si="0"/>
+        <v>MATCH</v>
+      </c>
+      <c r="I12" s="32"/>
+    </row>
+    <row r="13" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="10">
         <v>11</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="31">
+      <c r="D13" s="28">
         <v>11</v>
       </c>
-      <c r="E13" s="22" t="s">
+      <c r="E13" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="F13" s="37">
+      <c r="F13" s="34">
         <v>11</v>
       </c>
-      <c r="G13" s="48" t="s">
+      <c r="G13" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="H13" s="45" t="str">
-        <f t="shared" si="0"/>
-        <v>MATCH</v>
-      </c>
-      <c r="I13" s="35"/>
-    </row>
-    <row r="14" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="13">
+      <c r="H13" s="40" t="str">
+        <f t="shared" si="0"/>
+        <v>MATCH</v>
+      </c>
+      <c r="I13" s="32"/>
+    </row>
+    <row r="14" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
         <v>12</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="31">
+      <c r="D14" s="28">
         <v>12</v>
       </c>
-      <c r="E14" s="22" t="s">
+      <c r="E14" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="F14" s="37">
+      <c r="F14" s="34">
         <v>12</v>
       </c>
-      <c r="G14" s="48" t="s">
+      <c r="G14" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="H14" s="45" t="str">
-        <f t="shared" si="0"/>
-        <v>MATCH</v>
-      </c>
-      <c r="I14" s="35"/>
-    </row>
-    <row r="15" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="13">
+      <c r="H14" s="40" t="str">
+        <f t="shared" si="0"/>
+        <v>MATCH</v>
+      </c>
+      <c r="I14" s="32"/>
+    </row>
+    <row r="15" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="10">
         <v>13</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="31">
+      <c r="D15" s="28">
         <v>13</v>
       </c>
-      <c r="E15" s="22" t="s">
+      <c r="E15" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="F15" s="37">
+      <c r="F15" s="34">
         <v>13</v>
       </c>
-      <c r="G15" s="48" t="s">
+      <c r="G15" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="H15" s="45" t="str">
-        <f t="shared" si="0"/>
-        <v>MATCH</v>
-      </c>
-      <c r="I15" s="35"/>
-    </row>
-    <row r="16" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="13">
+      <c r="H15" s="40" t="str">
+        <f t="shared" si="0"/>
+        <v>MATCH</v>
+      </c>
+      <c r="I15" s="32"/>
+    </row>
+    <row r="16" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="10">
         <v>14</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="31">
+      <c r="D16" s="28">
         <v>14</v>
       </c>
-      <c r="E16" s="22" t="s">
+      <c r="E16" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="F16" s="37">
+      <c r="F16" s="34">
         <v>14</v>
       </c>
-      <c r="G16" s="48" t="s">
+      <c r="G16" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="H16" s="45" t="str">
-        <f t="shared" si="0"/>
-        <v>MATCH</v>
-      </c>
-      <c r="I16" s="35"/>
-    </row>
-    <row r="17" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="13">
+      <c r="H16" s="40" t="str">
+        <f t="shared" si="0"/>
+        <v>MATCH</v>
+      </c>
+      <c r="I16" s="32"/>
+    </row>
+    <row r="17" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="10">
         <v>15</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="31">
+      <c r="D17" s="28">
         <v>15</v>
       </c>
-      <c r="E17" s="22" t="s">
+      <c r="E17" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="F17" s="37">
+      <c r="F17" s="34">
         <v>15</v>
       </c>
-      <c r="G17" s="48" t="s">
+      <c r="G17" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="H17" s="45" t="str">
-        <f t="shared" si="0"/>
-        <v>MATCH</v>
-      </c>
-      <c r="I17" s="35"/>
-    </row>
-    <row r="18" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="13">
+      <c r="H17" s="40" t="str">
+        <f t="shared" si="0"/>
+        <v>MATCH</v>
+      </c>
+      <c r="I17" s="32"/>
+    </row>
+    <row r="18" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="10">
         <v>16</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="D18" s="31">
+      <c r="D18" s="28">
         <v>16</v>
       </c>
-      <c r="E18" s="22" t="s">
+      <c r="E18" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="F18" s="37">
+      <c r="F18" s="34">
         <v>16</v>
       </c>
-      <c r="G18" s="48" t="s">
+      <c r="G18" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="H18" s="45" t="str">
-        <f t="shared" si="0"/>
-        <v>MATCH</v>
-      </c>
-      <c r="I18" s="35"/>
-    </row>
-    <row r="19" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="13">
+      <c r="H18" s="40" t="str">
+        <f t="shared" si="0"/>
+        <v>MATCH</v>
+      </c>
+      <c r="I18" s="32"/>
+    </row>
+    <row r="19" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="10">
         <v>17</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="D19" s="31">
+      <c r="D19" s="28">
         <v>17</v>
       </c>
-      <c r="E19" s="22" t="s">
+      <c r="E19" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="F19" s="37">
+      <c r="F19" s="34">
         <v>17</v>
       </c>
-      <c r="G19" s="48" t="s">
+      <c r="G19" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="H19" s="45" t="str">
-        <f t="shared" si="0"/>
-        <v>MATCH</v>
-      </c>
-      <c r="I19" s="35"/>
-    </row>
-    <row r="20" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="13">
+      <c r="H19" s="40" t="str">
+        <f t="shared" si="0"/>
+        <v>MATCH</v>
+      </c>
+      <c r="I19" s="32"/>
+    </row>
+    <row r="20" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="10">
         <v>18</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="D20" s="31">
+      <c r="D20" s="28">
         <v>18</v>
       </c>
-      <c r="E20" s="22" t="s">
+      <c r="E20" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="F20" s="37">
+      <c r="F20" s="34">
         <v>18</v>
       </c>
-      <c r="G20" s="48" t="s">
+      <c r="G20" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="H20" s="45" t="str">
-        <f t="shared" si="0"/>
-        <v>MATCH</v>
-      </c>
-      <c r="I20" s="35"/>
-    </row>
-    <row r="21" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="13">
+      <c r="H20" s="40" t="str">
+        <f t="shared" si="0"/>
+        <v>MATCH</v>
+      </c>
+      <c r="I20" s="32"/>
+    </row>
+    <row r="21" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="10">
         <v>19</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="D21" s="31">
+      <c r="D21" s="28">
         <v>19</v>
       </c>
-      <c r="E21" s="22" t="s">
+      <c r="E21" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="F21" s="37">
+      <c r="F21" s="34">
         <v>19</v>
       </c>
-      <c r="G21" s="48" t="s">
+      <c r="G21" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="H21" s="45" t="str">
-        <f t="shared" si="0"/>
-        <v>MATCH</v>
-      </c>
-      <c r="I21" s="35"/>
-    </row>
-    <row r="22" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="13">
+      <c r="H21" s="40" t="str">
+        <f t="shared" si="0"/>
+        <v>MATCH</v>
+      </c>
+      <c r="I21" s="32"/>
+    </row>
+    <row r="22" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="10">
         <v>20</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="D22" s="31">
+      <c r="D22" s="28">
         <v>20</v>
       </c>
-      <c r="E22" s="22" t="s">
+      <c r="E22" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="F22" s="37">
+      <c r="F22" s="34">
         <v>20</v>
       </c>
-      <c r="G22" s="48" t="s">
+      <c r="G22" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="H22" s="45" t="str">
-        <f t="shared" si="0"/>
-        <v>MATCH</v>
-      </c>
-      <c r="I22" s="35"/>
-    </row>
-    <row r="23" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="13">
+      <c r="H22" s="40" t="str">
+        <f t="shared" si="0"/>
+        <v>MATCH</v>
+      </c>
+      <c r="I22" s="32"/>
+    </row>
+    <row r="23" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="10">
         <v>21</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="D23" s="31">
+      <c r="D23" s="28">
         <v>21</v>
       </c>
-      <c r="E23" s="22" t="s">
+      <c r="E23" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="F23" s="37">
+      <c r="F23" s="34">
         <v>21</v>
       </c>
-      <c r="G23" s="48" t="s">
+      <c r="G23" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="H23" s="45" t="str">
-        <f t="shared" si="0"/>
-        <v>MATCH</v>
-      </c>
-      <c r="I23" s="35"/>
-    </row>
-    <row r="24" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="13">
+      <c r="H23" s="40" t="str">
+        <f t="shared" si="0"/>
+        <v>MATCH</v>
+      </c>
+      <c r="I23" s="32"/>
+    </row>
+    <row r="24" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="10">
         <v>22</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="D24" s="31">
+      <c r="D24" s="28">
         <v>22</v>
       </c>
-      <c r="E24" s="22" t="s">
+      <c r="E24" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="F24" s="37">
+      <c r="F24" s="34">
         <v>22</v>
       </c>
-      <c r="G24" s="48" t="s">
+      <c r="G24" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="H24" s="45" t="str">
-        <f t="shared" si="0"/>
-        <v>MATCH</v>
-      </c>
-      <c r="I24" s="35"/>
-    </row>
-    <row r="25" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="13">
+      <c r="H24" s="40" t="str">
+        <f t="shared" si="0"/>
+        <v>MATCH</v>
+      </c>
+      <c r="I24" s="32"/>
+    </row>
+    <row r="25" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="10">
         <v>23</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="D25" s="31">
+      <c r="D25" s="28">
         <v>23</v>
       </c>
-      <c r="E25" s="22" t="s">
+      <c r="E25" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="F25" s="37">
+      <c r="F25" s="34">
         <v>23</v>
       </c>
-      <c r="G25" s="48" t="s">
+      <c r="G25" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="H25" s="45" t="str">
-        <f t="shared" si="0"/>
-        <v>MATCH</v>
-      </c>
-      <c r="I25" s="35"/>
-    </row>
-    <row r="26" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="13">
+      <c r="H25" s="40" t="str">
+        <f t="shared" si="0"/>
+        <v>MATCH</v>
+      </c>
+      <c r="I25" s="32"/>
+    </row>
+    <row r="26" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="10">
         <v>24</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="D26" s="31">
+      <c r="D26" s="28">
         <v>24</v>
       </c>
-      <c r="E26" s="22" t="s">
+      <c r="E26" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="F26" s="37">
+      <c r="F26" s="34">
         <v>24</v>
       </c>
-      <c r="G26" s="48" t="s">
+      <c r="G26" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="H26" s="45" t="str">
-        <f t="shared" si="0"/>
-        <v>MATCH</v>
-      </c>
-      <c r="I26" s="35"/>
-    </row>
-    <row r="27" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="13">
+      <c r="H26" s="40" t="str">
+        <f t="shared" si="0"/>
+        <v>MATCH</v>
+      </c>
+      <c r="I26" s="32"/>
+    </row>
+    <row r="27" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="10">
         <v>25</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="D27" s="31">
+      <c r="D27" s="28">
         <v>25</v>
       </c>
-      <c r="E27" s="22" t="s">
+      <c r="E27" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="F27" s="37">
+      <c r="F27" s="34">
         <v>25</v>
       </c>
-      <c r="G27" s="48" t="s">
+      <c r="G27" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="H27" s="45" t="str">
-        <f t="shared" si="0"/>
-        <v>MATCH</v>
-      </c>
-      <c r="I27" s="35"/>
-    </row>
-    <row r="28" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="13">
+      <c r="H27" s="40" t="str">
+        <f t="shared" si="0"/>
+        <v>MATCH</v>
+      </c>
+      <c r="I27" s="32"/>
+    </row>
+    <row r="28" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="10">
         <v>26</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="C28" s="15" t="s">
+      <c r="C28" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="D28" s="31">
+      <c r="D28" s="28">
         <v>26</v>
       </c>
-      <c r="E28" s="22" t="s">
+      <c r="E28" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="F28" s="37">
+      <c r="F28" s="34">
         <v>26</v>
       </c>
-      <c r="G28" s="48" t="s">
+      <c r="G28" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="H28" s="45" t="str">
-        <f t="shared" si="0"/>
-        <v>MATCH</v>
-      </c>
-      <c r="I28" s="35"/>
-    </row>
-    <row r="29" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="13">
+      <c r="H28" s="40" t="str">
+        <f t="shared" si="0"/>
+        <v>MATCH</v>
+      </c>
+      <c r="I28" s="32"/>
+    </row>
+    <row r="29" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="10">
         <v>27</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="C29" s="15" t="s">
+      <c r="C29" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="D29" s="31">
+      <c r="D29" s="28">
         <v>27</v>
       </c>
-      <c r="E29" s="22" t="s">
+      <c r="E29" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="F29" s="37">
+      <c r="F29" s="34">
         <v>27</v>
       </c>
-      <c r="G29" s="48" t="s">
+      <c r="G29" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="H29" s="45" t="str">
-        <f t="shared" si="0"/>
-        <v>MATCH</v>
-      </c>
-      <c r="I29" s="35"/>
-    </row>
-    <row r="30" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="13">
+      <c r="H29" s="40" t="str">
+        <f t="shared" si="0"/>
+        <v>MATCH</v>
+      </c>
+      <c r="I29" s="32"/>
+    </row>
+    <row r="30" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="10">
         <v>28</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="C30" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="D30" s="31">
+      <c r="D30" s="28">
         <v>28</v>
       </c>
-      <c r="E30" s="22" t="s">
+      <c r="E30" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="F30" s="37">
+      <c r="F30" s="34">
         <v>28</v>
       </c>
-      <c r="G30" s="48" t="s">
+      <c r="G30" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="H30" s="45" t="str">
-        <f t="shared" si="0"/>
-        <v>MATCH</v>
-      </c>
-      <c r="I30" s="35"/>
-    </row>
-    <row r="31" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="13">
+      <c r="H30" s="40" t="str">
+        <f t="shared" si="0"/>
+        <v>MATCH</v>
+      </c>
+      <c r="I30" s="32"/>
+    </row>
+    <row r="31" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="10">
         <v>29</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="C31" s="15" t="s">
+      <c r="C31" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="D31" s="31">
+      <c r="D31" s="28">
         <v>29</v>
       </c>
-      <c r="E31" s="22" t="s">
+      <c r="E31" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="F31" s="37">
+      <c r="F31" s="34">
         <v>29</v>
       </c>
-      <c r="G31" s="48" t="s">
+      <c r="G31" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="H31" s="45" t="str">
-        <f t="shared" si="0"/>
-        <v>MATCH</v>
-      </c>
-      <c r="I31" s="35"/>
-    </row>
-    <row r="32" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="13">
+      <c r="H31" s="40" t="str">
+        <f t="shared" si="0"/>
+        <v>MATCH</v>
+      </c>
+      <c r="I31" s="32"/>
+    </row>
+    <row r="32" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="10">
         <v>30</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="C32" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="D32" s="31">
+      <c r="D32" s="28">
         <v>30</v>
       </c>
-      <c r="E32" s="22" t="s">
+      <c r="E32" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="F32" s="37">
+      <c r="F32" s="34">
         <v>30</v>
       </c>
-      <c r="G32" s="48" t="s">
+      <c r="G32" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="H32" s="45" t="str">
-        <f t="shared" si="0"/>
-        <v>MATCH</v>
-      </c>
-      <c r="I32" s="35"/>
-    </row>
-    <row r="33" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="13">
+      <c r="H32" s="40" t="str">
+        <f t="shared" si="0"/>
+        <v>MATCH</v>
+      </c>
+      <c r="I32" s="32"/>
+    </row>
+    <row r="33" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="10">
         <v>31</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="C33" s="15" t="s">
+      <c r="C33" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="D33" s="31">
+      <c r="D33" s="28">
         <v>31</v>
       </c>
-      <c r="E33" s="22" t="s">
+      <c r="E33" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="F33" s="37">
+      <c r="F33" s="34">
         <v>31</v>
       </c>
-      <c r="G33" s="48" t="s">
+      <c r="G33" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="H33" s="45" t="str">
-        <f t="shared" si="0"/>
-        <v>MATCH</v>
-      </c>
-      <c r="I33" s="35"/>
-    </row>
-    <row r="34" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="13">
+      <c r="H33" s="40" t="str">
+        <f t="shared" si="0"/>
+        <v>MATCH</v>
+      </c>
+      <c r="I33" s="32"/>
+    </row>
+    <row r="34" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="10">
         <v>32</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="C34" s="15" t="s">
+      <c r="C34" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="D34" s="31">
+      <c r="D34" s="28">
         <v>32</v>
       </c>
-      <c r="E34" s="22" t="s">
+      <c r="E34" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="F34" s="37">
+      <c r="F34" s="34">
         <v>32</v>
       </c>
-      <c r="G34" s="48" t="s">
+      <c r="G34" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="H34" s="45" t="str">
-        <f t="shared" si="0"/>
-        <v>MATCH</v>
-      </c>
-      <c r="I34" s="35"/>
-    </row>
-    <row r="35" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="13">
+      <c r="H34" s="40" t="str">
+        <f t="shared" si="0"/>
+        <v>MATCH</v>
+      </c>
+      <c r="I34" s="32"/>
+    </row>
+    <row r="35" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="10">
         <v>33</v>
       </c>
-      <c r="B35" s="14" t="s">
+      <c r="B35" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="C35" s="15" t="s">
+      <c r="C35" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="D35" s="31">
+      <c r="D35" s="28">
         <v>33</v>
       </c>
-      <c r="E35" s="22" t="s">
+      <c r="E35" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="F35" s="37">
+      <c r="F35" s="34">
         <v>33</v>
       </c>
-      <c r="G35" s="48" t="s">
+      <c r="G35" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="H35" s="45" t="str">
-        <f t="shared" si="0"/>
-        <v>MATCH</v>
-      </c>
-      <c r="I35" s="35"/>
-    </row>
-    <row r="36" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="13">
+      <c r="H35" s="40" t="str">
+        <f t="shared" si="0"/>
+        <v>MATCH</v>
+      </c>
+      <c r="I35" s="32"/>
+    </row>
+    <row r="36" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="10">
         <v>34</v>
       </c>
-      <c r="B36" s="14" t="s">
+      <c r="B36" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="C36" s="15" t="s">
+      <c r="C36" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="D36" s="31">
+      <c r="D36" s="28">
         <v>34</v>
       </c>
-      <c r="E36" s="22" t="s">
+      <c r="E36" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="F36" s="37">
+      <c r="F36" s="34">
         <v>34</v>
       </c>
-      <c r="G36" s="48" t="s">
+      <c r="G36" s="43" t="s">
         <v>110</v>
       </c>
-      <c r="H36" s="45" t="str">
-        <f t="shared" si="0"/>
-        <v>MATCH</v>
-      </c>
-      <c r="I36" s="35"/>
-    </row>
-    <row r="37" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="13">
+      <c r="H36" s="40" t="str">
+        <f t="shared" si="0"/>
+        <v>MATCH</v>
+      </c>
+      <c r="I36" s="32"/>
+    </row>
+    <row r="37" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="10">
         <v>35</v>
       </c>
-      <c r="B37" s="14" t="s">
+      <c r="B37" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="C37" s="15" t="s">
+      <c r="C37" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="D37" s="31">
+      <c r="D37" s="28">
         <v>35</v>
       </c>
-      <c r="E37" s="22" t="s">
+      <c r="E37" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="F37" s="37">
+      <c r="F37" s="34">
         <v>35</v>
       </c>
-      <c r="G37" s="48" t="s">
+      <c r="G37" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="H37" s="45" t="str">
-        <f t="shared" si="0"/>
-        <v>MATCH</v>
-      </c>
-      <c r="I37" s="35"/>
-    </row>
-    <row r="38" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="13">
+      <c r="H37" s="40" t="str">
+        <f t="shared" si="0"/>
+        <v>MATCH</v>
+      </c>
+      <c r="I37" s="32"/>
+    </row>
+    <row r="38" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="10">
         <v>36</v>
       </c>
-      <c r="B38" s="14" t="s">
+      <c r="B38" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="C38" s="15" t="s">
+      <c r="C38" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="D38" s="31">
+      <c r="D38" s="28">
         <v>36</v>
       </c>
-      <c r="E38" s="22" t="s">
+      <c r="E38" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="F38" s="37">
+      <c r="F38" s="34">
         <v>36</v>
       </c>
-      <c r="G38" s="48" t="s">
+      <c r="G38" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="H38" s="45" t="str">
-        <f t="shared" si="0"/>
-        <v>MATCH</v>
-      </c>
-      <c r="I38" s="35"/>
-    </row>
-    <row r="39" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="13">
+      <c r="H38" s="40" t="str">
+        <f t="shared" si="0"/>
+        <v>MATCH</v>
+      </c>
+      <c r="I38" s="32"/>
+    </row>
+    <row r="39" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="10">
         <v>37</v>
       </c>
-      <c r="B39" s="14" t="s">
+      <c r="B39" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="C39" s="15" t="s">
+      <c r="C39" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="D39" s="31">
+      <c r="D39" s="28">
         <v>38</v>
       </c>
-      <c r="E39" s="22" t="s">
+      <c r="E39" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="F39" s="38">
+      <c r="F39" s="35">
         <v>37</v>
       </c>
-      <c r="G39" s="48" t="s">
+      <c r="G39" s="43" t="s">
         <v>119</v>
       </c>
-      <c r="H39" s="45" t="str">
+      <c r="H39" s="40" t="str">
         <f t="shared" si="0"/>
         <v>NOT MATCHED</v>
       </c>
-      <c r="I39" s="35"/>
-    </row>
-    <row r="40" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="13">
+      <c r="I39" s="32"/>
+    </row>
+    <row r="40" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="10">
         <v>38</v>
       </c>
-      <c r="B40" s="14" t="s">
+      <c r="B40" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="C40" s="15" t="s">
+      <c r="C40" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="D40" s="31">
+      <c r="D40" s="28">
         <v>39</v>
       </c>
-      <c r="E40" s="22" t="s">
+      <c r="E40" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="F40" s="39">
+      <c r="F40" s="36">
         <v>38</v>
       </c>
-      <c r="G40" s="48" t="s">
+      <c r="G40" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="H40" s="45" t="str">
+      <c r="H40" s="40" t="str">
         <f t="shared" si="0"/>
         <v>NOT MATCHED</v>
       </c>
-      <c r="I40" s="35"/>
-    </row>
-    <row r="41" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="13">
+      <c r="I40" s="32"/>
+    </row>
+    <row r="41" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="10">
         <v>39</v>
       </c>
-      <c r="B41" s="14" t="s">
+      <c r="B41" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="C41" s="15" t="s">
+      <c r="C41" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="D41" s="31">
+      <c r="D41" s="28">
         <v>40</v>
       </c>
-      <c r="E41" s="22" t="s">
+      <c r="E41" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="F41" s="38">
+      <c r="F41" s="35">
         <v>39</v>
       </c>
-      <c r="G41" s="49" t="s">
+      <c r="G41" s="44" t="s">
         <v>125</v>
       </c>
-      <c r="H41" s="45" t="str">
+      <c r="H41" s="40" t="str">
         <f t="shared" si="0"/>
         <v>NOT MATCHED</v>
       </c>
-      <c r="I41" s="35"/>
-    </row>
-    <row r="42" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="13">
+      <c r="I41" s="32"/>
+    </row>
+    <row r="42" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="10">
         <v>40</v>
       </c>
-      <c r="B42" s="14" t="s">
+      <c r="B42" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="C42" s="15" t="s">
+      <c r="C42" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="D42" s="31">
+      <c r="D42" s="28">
         <v>41</v>
       </c>
-      <c r="E42" s="22" t="s">
+      <c r="E42" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="F42" s="38">
+      <c r="F42" s="35">
         <v>40</v>
       </c>
-      <c r="G42" s="49" t="s">
+      <c r="G42" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="H42" s="45" t="str">
+      <c r="H42" s="40" t="str">
         <f t="shared" si="0"/>
         <v>NOT MATCHED</v>
       </c>
-      <c r="I42" s="35"/>
-    </row>
-    <row r="43" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="13">
+      <c r="I42" s="32"/>
+    </row>
+    <row r="43" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="10">
         <v>41</v>
       </c>
-      <c r="B43" s="14" t="s">
+      <c r="B43" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="C43" s="15" t="s">
+      <c r="C43" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="D43" s="31">
+      <c r="D43" s="28">
         <v>42</v>
       </c>
-      <c r="E43" s="22" t="s">
+      <c r="E43" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="F43" s="38">
+      <c r="F43" s="35">
         <v>41</v>
       </c>
-      <c r="G43" s="49" t="s">
+      <c r="G43" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="H43" s="45" t="str">
+      <c r="H43" s="40" t="str">
         <f t="shared" si="0"/>
         <v>NOT MATCHED</v>
       </c>
-      <c r="I43" s="35"/>
-    </row>
-    <row r="44" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="13">
+      <c r="I43" s="32"/>
+    </row>
+    <row r="44" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="10">
         <v>42</v>
       </c>
-      <c r="B44" s="14" t="s">
+      <c r="B44" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="C44" s="15" t="s">
+      <c r="C44" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="D44" s="31">
+      <c r="D44" s="28">
         <v>43</v>
       </c>
-      <c r="E44" s="22" t="s">
+      <c r="E44" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="F44" s="38">
+      <c r="F44" s="35">
         <v>42</v>
       </c>
-      <c r="G44" s="49" t="s">
+      <c r="G44" s="44" t="s">
         <v>134</v>
       </c>
-      <c r="H44" s="45" t="str">
+      <c r="H44" s="40" t="str">
         <f t="shared" si="0"/>
         <v>NOT MATCHED</v>
       </c>
-      <c r="I44" s="35"/>
-    </row>
-    <row r="45" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="13">
+      <c r="I44" s="32"/>
+    </row>
+    <row r="45" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="10">
         <v>43</v>
       </c>
-      <c r="B45" s="14" t="s">
+      <c r="B45" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="C45" s="15" t="s">
+      <c r="C45" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="D45" s="31">
+      <c r="D45" s="28">
         <v>44</v>
       </c>
-      <c r="E45" s="22" t="s">
+      <c r="E45" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="F45" s="38">
+      <c r="F45" s="35">
         <v>43</v>
       </c>
-      <c r="G45" s="49" t="s">
+      <c r="G45" s="44" t="s">
         <v>137</v>
       </c>
-      <c r="H45" s="45" t="str">
+      <c r="H45" s="40" t="str">
         <f t="shared" si="0"/>
         <v>NOT MATCHED</v>
       </c>
-      <c r="I45" s="35"/>
-    </row>
-    <row r="46" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="13">
+      <c r="I45" s="32"/>
+    </row>
+    <row r="46" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="10">
         <v>44</v>
       </c>
-      <c r="B46" s="14" t="s">
+      <c r="B46" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="C46" s="15" t="s">
+      <c r="C46" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="D46" s="31">
+      <c r="D46" s="28">
         <v>45</v>
       </c>
-      <c r="E46" s="22" t="s">
+      <c r="E46" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="F46" s="38">
+      <c r="F46" s="35">
         <v>44</v>
       </c>
-      <c r="G46" s="49" t="s">
+      <c r="G46" s="44" t="s">
         <v>140</v>
       </c>
-      <c r="H46" s="45" t="str">
+      <c r="H46" s="40" t="str">
         <f t="shared" si="0"/>
         <v>NOT MATCHED</v>
       </c>
-      <c r="I46" s="35"/>
-    </row>
-    <row r="47" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="13">
+      <c r="I46" s="32"/>
+    </row>
+    <row r="47" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="10">
         <v>45</v>
       </c>
-      <c r="B47" s="14" t="s">
+      <c r="B47" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="C47" s="15" t="s">
+      <c r="C47" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="D47" s="31">
+      <c r="D47" s="28">
         <v>46</v>
       </c>
-      <c r="E47" s="22" t="s">
+      <c r="E47" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="F47" s="38">
+      <c r="F47" s="35">
         <v>45</v>
       </c>
-      <c r="G47" s="49" t="s">
+      <c r="G47" s="44" t="s">
         <v>143</v>
       </c>
-      <c r="H47" s="45" t="str">
+      <c r="H47" s="40" t="str">
         <f t="shared" si="0"/>
         <v>NOT MATCHED</v>
       </c>
-      <c r="I47" s="35"/>
-    </row>
-    <row r="48" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="13">
+      <c r="I47" s="32"/>
+    </row>
+    <row r="48" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="10">
         <v>46</v>
       </c>
-      <c r="B48" s="14" t="s">
+      <c r="B48" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="C48" s="15" t="s">
+      <c r="C48" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="D48" s="31">
+      <c r="D48" s="28">
         <v>47</v>
       </c>
-      <c r="E48" s="22" t="s">
+      <c r="E48" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="F48" s="38">
+      <c r="F48" s="35">
         <v>46</v>
       </c>
-      <c r="G48" s="49" t="s">
+      <c r="G48" s="44" t="s">
         <v>146</v>
       </c>
-      <c r="H48" s="45" t="str">
+      <c r="H48" s="40" t="str">
         <f t="shared" si="0"/>
         <v>NOT MATCHED</v>
       </c>
-      <c r="I48" s="35"/>
-    </row>
-    <row r="49" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="13">
+      <c r="I48" s="32"/>
+    </row>
+    <row r="49" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="10">
         <v>47</v>
       </c>
-      <c r="B49" s="14" t="s">
+      <c r="B49" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="C49" s="15" t="s">
+      <c r="C49" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="D49" s="31">
+      <c r="D49" s="28">
         <v>48</v>
       </c>
-      <c r="E49" s="22" t="s">
+      <c r="E49" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="F49" s="38">
+      <c r="F49" s="35">
         <v>47</v>
       </c>
-      <c r="G49" s="49" t="s">
+      <c r="G49" s="44" t="s">
         <v>149</v>
       </c>
-      <c r="H49" s="45" t="str">
+      <c r="H49" s="40" t="str">
         <f t="shared" si="0"/>
         <v>NOT MATCHED</v>
       </c>
-      <c r="I49" s="35"/>
-    </row>
-    <row r="50" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="13">
+      <c r="I49" s="32"/>
+    </row>
+    <row r="50" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="10">
         <v>48</v>
       </c>
-      <c r="B50" s="14" t="s">
+      <c r="B50" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="C50" s="15" t="s">
+      <c r="C50" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="D50" s="31">
+      <c r="D50" s="28">
         <v>49</v>
       </c>
-      <c r="E50" s="22" t="s">
+      <c r="E50" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="F50" s="38">
+      <c r="F50" s="35">
         <v>48</v>
       </c>
-      <c r="G50" s="49" t="s">
+      <c r="G50" s="44" t="s">
         <v>152</v>
       </c>
-      <c r="H50" s="45" t="str">
+      <c r="H50" s="40" t="str">
         <f t="shared" si="0"/>
         <v>NOT MATCHED</v>
       </c>
-      <c r="I50" s="35"/>
-    </row>
-    <row r="51" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="13">
+      <c r="I50" s="32"/>
+    </row>
+    <row r="51" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="10">
         <v>49</v>
       </c>
-      <c r="B51" s="14" t="s">
+      <c r="B51" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="C51" s="15" t="s">
+      <c r="C51" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="D51" s="31">
+      <c r="D51" s="28">
         <v>50</v>
       </c>
-      <c r="E51" s="22" t="s">
+      <c r="E51" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="F51" s="38">
+      <c r="F51" s="35">
         <v>49</v>
       </c>
-      <c r="G51" s="49" t="s">
+      <c r="G51" s="44" t="s">
         <v>155</v>
       </c>
-      <c r="H51" s="45" t="str">
+      <c r="H51" s="40" t="str">
         <f t="shared" si="0"/>
         <v>NOT MATCHED</v>
       </c>
-      <c r="I51" s="35"/>
-    </row>
-    <row r="52" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="13">
+      <c r="I51" s="32"/>
+    </row>
+    <row r="52" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="10">
         <v>50</v>
       </c>
-      <c r="B52" s="14" t="s">
+      <c r="B52" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="C52" s="15" t="s">
+      <c r="C52" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="D52" s="31">
+      <c r="D52" s="28">
         <v>51</v>
       </c>
-      <c r="E52" s="22" t="s">
+      <c r="E52" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="F52" s="38">
+      <c r="F52" s="35">
         <v>50</v>
       </c>
-      <c r="G52" s="49" t="s">
+      <c r="G52" s="44" t="s">
         <v>158</v>
       </c>
-      <c r="H52" s="45" t="str">
+      <c r="H52" s="40" t="str">
         <f t="shared" si="0"/>
         <v>NOT MATCHED</v>
       </c>
-      <c r="I52" s="35"/>
-    </row>
-    <row r="53" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="13">
+      <c r="I52" s="32"/>
+    </row>
+    <row r="53" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="10">
         <v>51</v>
       </c>
-      <c r="B53" s="14" t="s">
+      <c r="B53" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="C53" s="15" t="s">
+      <c r="C53" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="D53" s="31">
+      <c r="D53" s="28">
         <v>52</v>
       </c>
-      <c r="E53" s="22" t="s">
+      <c r="E53" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="F53" s="38">
+      <c r="F53" s="35">
         <v>51</v>
       </c>
-      <c r="G53" s="49" t="s">
+      <c r="G53" s="44" t="s">
         <v>161</v>
       </c>
-      <c r="H53" s="45" t="str">
+      <c r="H53" s="40" t="str">
         <f t="shared" si="0"/>
         <v>NOT MATCHED</v>
       </c>
-      <c r="I53" s="35"/>
-    </row>
-    <row r="54" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="13">
+      <c r="I53" s="32"/>
+    </row>
+    <row r="54" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="10">
         <v>52</v>
       </c>
-      <c r="B54" s="14" t="s">
+      <c r="B54" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="C54" s="15" t="s">
+      <c r="C54" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="D54" s="31">
+      <c r="D54" s="28">
         <v>53</v>
       </c>
-      <c r="E54" s="22" t="s">
+      <c r="E54" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="F54" s="38">
+      <c r="F54" s="35">
         <v>52</v>
       </c>
-      <c r="G54" s="49" t="s">
+      <c r="G54" s="44" t="s">
         <v>164</v>
       </c>
-      <c r="H54" s="45" t="str">
+      <c r="H54" s="40" t="str">
         <f t="shared" si="0"/>
         <v>NOT MATCHED</v>
       </c>
-      <c r="I54" s="35"/>
-    </row>
-    <row r="55" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="13">
+      <c r="I54" s="32"/>
+    </row>
+    <row r="55" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="10">
         <v>53</v>
       </c>
-      <c r="B55" s="14" t="s">
+      <c r="B55" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="C55" s="15" t="s">
+      <c r="C55" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="D55" s="31">
+      <c r="D55" s="28">
         <v>54</v>
       </c>
-      <c r="E55" s="22" t="s">
+      <c r="E55" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="F55" s="38">
+      <c r="F55" s="35">
         <v>53</v>
       </c>
-      <c r="G55" s="49" t="s">
+      <c r="G55" s="44" t="s">
         <v>167</v>
       </c>
-      <c r="H55" s="45" t="str">
+      <c r="H55" s="40" t="str">
         <f t="shared" si="0"/>
         <v>NOT MATCHED</v>
       </c>
-      <c r="I55" s="35"/>
-    </row>
-    <row r="56" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="13">
+      <c r="I55" s="32"/>
+    </row>
+    <row r="56" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="10">
         <v>54</v>
       </c>
-      <c r="B56" s="14" t="s">
+      <c r="B56" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="C56" s="15" t="s">
+      <c r="C56" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="D56" s="31">
+      <c r="D56" s="28">
         <v>55</v>
       </c>
-      <c r="E56" s="22" t="s">
+      <c r="E56" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="F56" s="38">
+      <c r="F56" s="35">
         <v>54</v>
       </c>
-      <c r="G56" s="49" t="s">
+      <c r="G56" s="44" t="s">
         <v>170</v>
       </c>
-      <c r="H56" s="45" t="str">
+      <c r="H56" s="40" t="str">
         <f t="shared" si="0"/>
         <v>NOT MATCHED</v>
       </c>
-      <c r="I56" s="35"/>
-    </row>
-    <row r="57" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="13">
+      <c r="I56" s="32"/>
+    </row>
+    <row r="57" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="10">
         <v>55</v>
       </c>
-      <c r="B57" s="14" t="s">
+      <c r="B57" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="C57" s="15" t="s">
+      <c r="C57" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="D57" s="31">
+      <c r="D57" s="28">
         <v>56</v>
       </c>
-      <c r="E57" s="22" t="s">
+      <c r="E57" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="F57" s="38">
+      <c r="F57" s="35">
         <v>55</v>
       </c>
-      <c r="G57" s="49" t="s">
+      <c r="G57" s="44" t="s">
         <v>173</v>
       </c>
-      <c r="H57" s="45" t="str">
+      <c r="H57" s="40" t="str">
         <f t="shared" si="0"/>
         <v>NOT MATCHED</v>
       </c>
-      <c r="I57" s="35"/>
-    </row>
-    <row r="58" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="13">
+      <c r="I57" s="32"/>
+    </row>
+    <row r="58" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="10">
         <v>56</v>
       </c>
-      <c r="B58" s="14" t="s">
+      <c r="B58" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="C58" s="15" t="s">
+      <c r="C58" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="D58" s="31">
+      <c r="D58" s="28">
         <v>57</v>
       </c>
-      <c r="E58" s="22" t="s">
+      <c r="E58" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="F58" s="38">
+      <c r="F58" s="35">
         <v>56</v>
       </c>
-      <c r="G58" s="49" t="s">
+      <c r="G58" s="44" t="s">
         <v>176</v>
       </c>
-      <c r="H58" s="45" t="str">
+      <c r="H58" s="40" t="str">
         <f t="shared" si="0"/>
         <v>NOT MATCHED</v>
       </c>
-      <c r="I58" s="35"/>
-    </row>
-    <row r="59" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="13">
+      <c r="I58" s="32"/>
+    </row>
+    <row r="59" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="10">
         <v>57</v>
       </c>
-      <c r="B59" s="14" t="s">
+      <c r="B59" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="C59" s="15" t="s">
+      <c r="C59" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="D59" s="31">
+      <c r="D59" s="28">
         <v>58</v>
       </c>
-      <c r="E59" s="22" t="s">
+      <c r="E59" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="F59" s="38">
+      <c r="F59" s="35">
         <v>57</v>
       </c>
-      <c r="G59" s="49" t="s">
+      <c r="G59" s="44" t="s">
         <v>179</v>
       </c>
-      <c r="H59" s="45" t="str">
+      <c r="H59" s="40" t="str">
         <f t="shared" si="0"/>
         <v>NOT MATCHED</v>
       </c>
-      <c r="I59" s="35"/>
-    </row>
-    <row r="60" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="13">
+      <c r="I59" s="32"/>
+    </row>
+    <row r="60" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="10">
         <v>58</v>
       </c>
-      <c r="B60" s="14" t="s">
+      <c r="B60" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="C60" s="15" t="s">
+      <c r="C60" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="D60" s="31">
+      <c r="D60" s="28">
         <v>59</v>
       </c>
-      <c r="E60" s="22" t="s">
+      <c r="E60" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="F60" s="38">
+      <c r="F60" s="35">
         <v>58</v>
       </c>
-      <c r="G60" s="49" t="s">
+      <c r="G60" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="H60" s="45" t="str">
+      <c r="H60" s="40" t="str">
         <f t="shared" si="0"/>
         <v>NOT MATCHED</v>
       </c>
-      <c r="I60" s="35"/>
-    </row>
-    <row r="61" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="13"/>
-      <c r="B61" s="16"/>
-      <c r="C61" s="17"/>
-      <c r="D61" s="33"/>
-      <c r="E61" s="23"/>
-      <c r="F61" s="38">
+      <c r="I60" s="32"/>
+    </row>
+    <row r="61" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="10"/>
+      <c r="B61" s="13"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="30"/>
+      <c r="E61" s="20"/>
+      <c r="F61" s="35">
         <v>59</v>
       </c>
-      <c r="G61" s="49" t="s">
+      <c r="G61" s="44" t="s">
         <v>305</v>
       </c>
-      <c r="H61" s="45" t="str">
+      <c r="H61" s="40" t="str">
         <f t="shared" si="0"/>
         <v>NOT MATCHED</v>
       </c>
-      <c r="I61" s="35" t="s">
+      <c r="I61" s="32" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="13">
+    <row r="62" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="10">
         <v>59</v>
       </c>
-      <c r="B62" s="14" t="s">
+      <c r="B62" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="C62" s="15" t="s">
+      <c r="C62" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="D62" s="31">
+      <c r="D62" s="28">
         <v>60</v>
       </c>
-      <c r="E62" s="22" t="s">
+      <c r="E62" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="F62" s="38">
+      <c r="F62" s="35">
         <v>60</v>
       </c>
-      <c r="G62" s="49" t="s">
+      <c r="G62" s="44" t="s">
         <v>185</v>
       </c>
-      <c r="H62" s="45" t="str">
-        <f t="shared" si="0"/>
-        <v>MATCH</v>
-      </c>
-      <c r="I62" s="35"/>
-    </row>
-    <row r="63" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="13">
+      <c r="H62" s="40" t="str">
+        <f t="shared" si="0"/>
+        <v>MATCH</v>
+      </c>
+      <c r="I62" s="32"/>
+    </row>
+    <row r="63" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="10">
         <v>60</v>
       </c>
-      <c r="B63" s="14" t="s">
+      <c r="B63" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="C63" s="15" t="s">
+      <c r="C63" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="D63" s="31">
+      <c r="D63" s="28">
         <v>61</v>
       </c>
-      <c r="E63" s="22" t="s">
+      <c r="E63" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="F63" s="38">
+      <c r="F63" s="35">
         <v>61</v>
       </c>
-      <c r="G63" s="49" t="s">
+      <c r="G63" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="H63" s="45" t="str">
-        <f t="shared" si="0"/>
-        <v>MATCH</v>
-      </c>
-      <c r="I63" s="35"/>
-    </row>
-    <row r="64" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="13">
+      <c r="H63" s="40" t="str">
+        <f t="shared" si="0"/>
+        <v>MATCH</v>
+      </c>
+      <c r="I63" s="32"/>
+    </row>
+    <row r="64" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="10">
         <v>61</v>
       </c>
-      <c r="B64" s="14" t="s">
+      <c r="B64" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="C64" s="15" t="s">
+      <c r="C64" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="D64" s="31">
+      <c r="D64" s="28">
         <v>62</v>
       </c>
-      <c r="E64" s="22" t="s">
+      <c r="E64" s="19" t="s">
         <v>192</v>
       </c>
-      <c r="F64" s="38">
+      <c r="F64" s="35">
         <v>62</v>
       </c>
-      <c r="G64" s="49" t="s">
+      <c r="G64" s="44" t="s">
         <v>191</v>
       </c>
-      <c r="H64" s="45" t="str">
-        <f t="shared" si="0"/>
-        <v>MATCH</v>
-      </c>
-      <c r="I64" s="35"/>
-    </row>
-    <row r="65" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="13">
+      <c r="H64" s="40" t="str">
+        <f t="shared" si="0"/>
+        <v>MATCH</v>
+      </c>
+      <c r="I64" s="32"/>
+    </row>
+    <row r="65" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="10">
         <v>62</v>
       </c>
-      <c r="B65" s="14" t="s">
+      <c r="B65" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="C65" s="15" t="s">
+      <c r="C65" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="D65" s="31">
+      <c r="D65" s="28">
         <v>63</v>
       </c>
-      <c r="E65" s="22" t="s">
+      <c r="E65" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="F65" s="38">
+      <c r="F65" s="35">
         <v>63</v>
       </c>
-      <c r="G65" s="49" t="s">
+      <c r="G65" s="44" t="s">
         <v>194</v>
       </c>
-      <c r="H65" s="45" t="str">
-        <f t="shared" si="0"/>
-        <v>MATCH</v>
-      </c>
-      <c r="I65" s="35"/>
-    </row>
-    <row r="66" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="13">
+      <c r="H65" s="40" t="str">
+        <f t="shared" si="0"/>
+        <v>MATCH</v>
+      </c>
+      <c r="I65" s="32"/>
+    </row>
+    <row r="66" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="10">
         <v>63</v>
       </c>
-      <c r="B66" s="14" t="s">
+      <c r="B66" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="C66" s="15" t="s">
+      <c r="C66" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="D66" s="31">
+      <c r="D66" s="28">
         <v>64</v>
       </c>
-      <c r="E66" s="22" t="s">
+      <c r="E66" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="F66" s="38">
+      <c r="F66" s="35">
         <v>64</v>
       </c>
-      <c r="G66" s="49" t="s">
+      <c r="G66" s="44" t="s">
         <v>197</v>
       </c>
-      <c r="H66" s="45" t="str">
-        <f t="shared" si="0"/>
-        <v>MATCH</v>
-      </c>
-      <c r="I66" s="35"/>
-    </row>
-    <row r="67" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="13">
+      <c r="H66" s="40" t="str">
+        <f t="shared" si="0"/>
+        <v>MATCH</v>
+      </c>
+      <c r="I66" s="32"/>
+    </row>
+    <row r="67" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="10">
         <v>64</v>
       </c>
-      <c r="B67" s="14" t="s">
+      <c r="B67" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="C67" s="15" t="s">
+      <c r="C67" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="D67" s="31">
+      <c r="D67" s="28">
         <v>65</v>
       </c>
-      <c r="E67" s="22" t="s">
+      <c r="E67" s="19" t="s">
         <v>201</v>
       </c>
-      <c r="F67" s="38">
+      <c r="F67" s="35">
         <v>65</v>
       </c>
-      <c r="G67" s="49" t="s">
+      <c r="G67" s="44" t="s">
         <v>200</v>
       </c>
-      <c r="H67" s="45" t="str">
-        <f t="shared" si="0"/>
-        <v>MATCH</v>
-      </c>
-      <c r="I67" s="35"/>
-    </row>
-    <row r="68" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="13">
+      <c r="H67" s="40" t="str">
+        <f t="shared" si="0"/>
+        <v>MATCH</v>
+      </c>
+      <c r="I67" s="32"/>
+    </row>
+    <row r="68" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="10">
         <v>65</v>
       </c>
-      <c r="B68" s="14" t="s">
+      <c r="B68" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="C68" s="15" t="s">
+      <c r="C68" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="D68" s="31">
+      <c r="D68" s="28">
         <v>66</v>
       </c>
-      <c r="E68" s="22" t="s">
+      <c r="E68" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="F68" s="38">
+      <c r="F68" s="35">
         <v>66</v>
       </c>
-      <c r="G68" s="49" t="s">
+      <c r="G68" s="44" t="s">
         <v>203</v>
       </c>
-      <c r="H68" s="45" t="str">
+      <c r="H68" s="40" t="str">
         <f t="shared" ref="H68:H101" si="1">IF(D68=F68,"MATCH","NOT MATCHED")</f>
         <v>MATCH</v>
       </c>
-      <c r="I68" s="35"/>
-    </row>
-    <row r="69" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="13">
+      <c r="I68" s="32"/>
+    </row>
+    <row r="69" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="10">
         <v>66</v>
       </c>
-      <c r="B69" s="14" t="s">
+      <c r="B69" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="C69" s="15" t="s">
+      <c r="C69" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="D69" s="31">
+      <c r="D69" s="28">
         <v>67</v>
       </c>
-      <c r="E69" s="22" t="s">
+      <c r="E69" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="F69" s="38">
+      <c r="F69" s="35">
         <v>67</v>
       </c>
-      <c r="G69" s="49" t="s">
+      <c r="G69" s="44" t="s">
         <v>206</v>
       </c>
-      <c r="H69" s="45" t="str">
+      <c r="H69" s="40" t="str">
         <f t="shared" si="1"/>
         <v>MATCH</v>
       </c>
-      <c r="I69" s="35"/>
-    </row>
-    <row r="70" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="13">
+      <c r="I69" s="32"/>
+    </row>
+    <row r="70" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="10">
         <v>67</v>
       </c>
-      <c r="B70" s="14" t="s">
+      <c r="B70" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="C70" s="15" t="s">
+      <c r="C70" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="D70" s="31">
+      <c r="D70" s="28">
         <v>68</v>
       </c>
-      <c r="E70" s="22" t="s">
+      <c r="E70" s="19" t="s">
         <v>210</v>
       </c>
-      <c r="F70" s="38">
+      <c r="F70" s="35">
         <v>68</v>
       </c>
-      <c r="G70" s="49" t="s">
+      <c r="G70" s="44" t="s">
         <v>209</v>
       </c>
-      <c r="H70" s="45" t="str">
+      <c r="H70" s="40" t="str">
         <f t="shared" si="1"/>
         <v>MATCH</v>
       </c>
-      <c r="I70" s="35"/>
-    </row>
-    <row r="71" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="13">
+      <c r="I70" s="32"/>
+    </row>
+    <row r="71" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="10">
         <v>68</v>
       </c>
-      <c r="B71" s="14" t="s">
+      <c r="B71" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="C71" s="15" t="s">
+      <c r="C71" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="D71" s="31">
+      <c r="D71" s="28">
         <v>69</v>
       </c>
-      <c r="E71" s="22" t="s">
+      <c r="E71" s="19" t="s">
         <v>213</v>
       </c>
-      <c r="F71" s="38">
+      <c r="F71" s="35">
         <v>69</v>
       </c>
-      <c r="G71" s="49" t="s">
+      <c r="G71" s="44" t="s">
         <v>212</v>
       </c>
-      <c r="H71" s="45" t="str">
+      <c r="H71" s="40" t="str">
         <f t="shared" si="1"/>
         <v>MATCH</v>
       </c>
-      <c r="I71" s="35"/>
-    </row>
-    <row r="72" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="13">
+      <c r="I71" s="32"/>
+    </row>
+    <row r="72" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="10">
         <v>69</v>
       </c>
-      <c r="B72" s="14" t="s">
+      <c r="B72" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="C72" s="15" t="s">
+      <c r="C72" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="D72" s="31">
+      <c r="D72" s="28">
         <v>70</v>
       </c>
-      <c r="E72" s="22" t="s">
+      <c r="E72" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="F72" s="38">
+      <c r="F72" s="35">
         <v>70</v>
       </c>
-      <c r="G72" s="49" t="s">
+      <c r="G72" s="44" t="s">
         <v>215</v>
       </c>
-      <c r="H72" s="45" t="str">
+      <c r="H72" s="40" t="str">
         <f t="shared" si="1"/>
         <v>MATCH</v>
       </c>
-      <c r="I72" s="35"/>
-    </row>
-    <row r="73" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="13">
+      <c r="I72" s="32"/>
+    </row>
+    <row r="73" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="10">
         <v>70</v>
       </c>
-      <c r="B73" s="14" t="s">
+      <c r="B73" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="C73" s="15" t="s">
+      <c r="C73" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="D73" s="31">
+      <c r="D73" s="28">
         <v>71</v>
       </c>
-      <c r="E73" s="22" t="s">
+      <c r="E73" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="F73" s="38">
+      <c r="F73" s="35">
         <v>71</v>
       </c>
-      <c r="G73" s="49" t="s">
+      <c r="G73" s="44" t="s">
         <v>218</v>
       </c>
-      <c r="H73" s="45" t="str">
+      <c r="H73" s="40" t="str">
         <f t="shared" si="1"/>
         <v>MATCH</v>
       </c>
-      <c r="I73" s="35"/>
-    </row>
-    <row r="74" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="13">
+      <c r="I73" s="32"/>
+    </row>
+    <row r="74" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="10">
         <v>71</v>
       </c>
-      <c r="B74" s="14" t="s">
+      <c r="B74" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="C74" s="15" t="s">
+      <c r="C74" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="D74" s="31">
+      <c r="D74" s="28">
         <v>72</v>
       </c>
-      <c r="E74" s="22" t="s">
+      <c r="E74" s="19" t="s">
         <v>222</v>
       </c>
-      <c r="F74" s="38">
+      <c r="F74" s="35">
         <v>72</v>
       </c>
-      <c r="G74" s="49" t="s">
+      <c r="G74" s="44" t="s">
         <v>221</v>
       </c>
-      <c r="H74" s="45" t="str">
+      <c r="H74" s="40" t="str">
         <f t="shared" si="1"/>
         <v>MATCH</v>
       </c>
-      <c r="I74" s="35"/>
-    </row>
-    <row r="75" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="13">
+      <c r="I74" s="32"/>
+    </row>
+    <row r="75" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="10">
         <v>72</v>
       </c>
-      <c r="B75" s="14" t="s">
+      <c r="B75" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="C75" s="15" t="s">
+      <c r="C75" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="D75" s="31">
+      <c r="D75" s="28">
         <v>73</v>
       </c>
-      <c r="E75" s="22" t="s">
+      <c r="E75" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="F75" s="38">
+      <c r="F75" s="35">
         <v>73</v>
       </c>
-      <c r="G75" s="49" t="s">
+      <c r="G75" s="44" t="s">
         <v>224</v>
       </c>
-      <c r="H75" s="45" t="str">
+      <c r="H75" s="40" t="str">
         <f t="shared" si="1"/>
         <v>MATCH</v>
       </c>
-      <c r="I75" s="35"/>
-    </row>
-    <row r="76" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="13">
+      <c r="I75" s="32"/>
+    </row>
+    <row r="76" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="10">
         <v>73</v>
       </c>
-      <c r="B76" s="14" t="s">
+      <c r="B76" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="C76" s="15" t="s">
+      <c r="C76" s="12" t="s">
         <v>227</v>
       </c>
-      <c r="D76" s="31">
+      <c r="D76" s="28">
         <v>74</v>
       </c>
-      <c r="E76" s="22" t="s">
+      <c r="E76" s="19" t="s">
         <v>228</v>
       </c>
-      <c r="F76" s="38">
+      <c r="F76" s="35">
         <v>74</v>
       </c>
-      <c r="G76" s="49" t="s">
+      <c r="G76" s="44" t="s">
         <v>227</v>
       </c>
-      <c r="H76" s="45" t="str">
+      <c r="H76" s="40" t="str">
         <f t="shared" si="1"/>
         <v>MATCH</v>
       </c>
-      <c r="I76" s="35"/>
-    </row>
-    <row r="77" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="13">
+      <c r="I76" s="32"/>
+    </row>
+    <row r="77" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="10">
         <v>74</v>
       </c>
-      <c r="B77" s="14" t="s">
+      <c r="B77" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="C77" s="15" t="s">
+      <c r="C77" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="D77" s="31">
+      <c r="D77" s="28">
         <v>75</v>
       </c>
-      <c r="E77" s="22" t="s">
+      <c r="E77" s="19" t="s">
         <v>231</v>
       </c>
-      <c r="F77" s="38">
+      <c r="F77" s="35">
         <v>75</v>
       </c>
-      <c r="G77" s="49" t="s">
+      <c r="G77" s="44" t="s">
         <v>230</v>
       </c>
-      <c r="H77" s="45" t="str">
+      <c r="H77" s="40" t="str">
         <f t="shared" si="1"/>
         <v>MATCH</v>
       </c>
-      <c r="I77" s="35"/>
-    </row>
-    <row r="78" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="13">
+      <c r="I77" s="32"/>
+    </row>
+    <row r="78" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="10">
         <v>75</v>
       </c>
-      <c r="B78" s="14" t="s">
+      <c r="B78" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="C78" s="15" t="s">
+      <c r="C78" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="D78" s="31">
+      <c r="D78" s="28">
         <v>76</v>
       </c>
-      <c r="E78" s="22" t="s">
+      <c r="E78" s="19" t="s">
         <v>234</v>
       </c>
-      <c r="F78" s="38">
+      <c r="F78" s="35">
         <v>76</v>
       </c>
-      <c r="G78" s="49" t="s">
+      <c r="G78" s="44" t="s">
         <v>233</v>
       </c>
-      <c r="H78" s="45" t="str">
+      <c r="H78" s="40" t="str">
         <f t="shared" si="1"/>
         <v>MATCH</v>
       </c>
-      <c r="I78" s="35"/>
-    </row>
-    <row r="79" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="13">
+      <c r="I78" s="32"/>
+    </row>
+    <row r="79" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="10">
         <v>76</v>
       </c>
-      <c r="B79" s="14" t="s">
+      <c r="B79" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="C79" s="15" t="s">
+      <c r="C79" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="D79" s="31">
+      <c r="D79" s="28">
         <v>78</v>
       </c>
-      <c r="E79" s="22" t="s">
+      <c r="E79" s="19" t="s">
         <v>237</v>
       </c>
-      <c r="F79" s="39">
+      <c r="F79" s="36">
         <v>77</v>
       </c>
-      <c r="G79" s="49" t="s">
+      <c r="G79" s="44" t="s">
         <v>236</v>
       </c>
-      <c r="H79" s="45" t="str">
+      <c r="H79" s="40" t="str">
         <f t="shared" si="1"/>
         <v>NOT MATCHED</v>
       </c>
-      <c r="I79" s="35"/>
-    </row>
-    <row r="80" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="13">
+      <c r="I79" s="32"/>
+    </row>
+    <row r="80" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="10">
         <v>77</v>
       </c>
-      <c r="B80" s="14" t="s">
+      <c r="B80" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="C80" s="15" t="s">
+      <c r="C80" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="D80" s="31">
+      <c r="D80" s="28">
         <v>79</v>
       </c>
-      <c r="E80" s="22" t="s">
+      <c r="E80" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="F80" s="38">
+      <c r="F80" s="35">
         <v>78</v>
       </c>
-      <c r="G80" s="49" t="s">
+      <c r="G80" s="44" t="s">
         <v>239</v>
       </c>
-      <c r="H80" s="45" t="str">
+      <c r="H80" s="40" t="str">
         <f t="shared" si="1"/>
         <v>NOT MATCHED</v>
       </c>
-      <c r="I80" s="35"/>
-    </row>
-    <row r="81" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="13">
+      <c r="I80" s="32"/>
+    </row>
+    <row r="81" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="10">
         <v>78</v>
       </c>
-      <c r="B81" s="14" t="s">
+      <c r="B81" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="C81" s="15" t="s">
+      <c r="C81" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="D81" s="31">
+      <c r="D81" s="28">
         <v>80</v>
       </c>
-      <c r="E81" s="22" t="s">
+      <c r="E81" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="F81" s="38">
+      <c r="F81" s="35">
         <v>79</v>
       </c>
-      <c r="G81" s="49" t="s">
+      <c r="G81" s="44" t="s">
         <v>242</v>
       </c>
-      <c r="H81" s="45" t="str">
+      <c r="H81" s="40" t="str">
         <f t="shared" si="1"/>
         <v>NOT MATCHED</v>
       </c>
-      <c r="I81" s="35"/>
-    </row>
-    <row r="82" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="13">
+      <c r="I81" s="32"/>
+    </row>
+    <row r="82" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="10">
         <v>79</v>
       </c>
-      <c r="B82" s="14" t="s">
+      <c r="B82" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="C82" s="15" t="s">
+      <c r="C82" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="D82" s="31">
+      <c r="D82" s="28">
         <v>81</v>
       </c>
-      <c r="E82" s="22" t="s">
+      <c r="E82" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="F82" s="38">
+      <c r="F82" s="35">
         <v>80</v>
       </c>
-      <c r="G82" s="49" t="s">
+      <c r="G82" s="44" t="s">
         <v>245</v>
       </c>
-      <c r="H82" s="45" t="str">
+      <c r="H82" s="40" t="str">
         <f t="shared" si="1"/>
         <v>NOT MATCHED</v>
       </c>
-      <c r="I82" s="35"/>
-    </row>
-    <row r="83" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="13">
+      <c r="I82" s="32"/>
+    </row>
+    <row r="83" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="10">
         <v>80</v>
       </c>
-      <c r="B83" s="14" t="s">
+      <c r="B83" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="C83" s="15" t="s">
+      <c r="C83" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="D83" s="31">
+      <c r="D83" s="28">
         <v>82</v>
       </c>
-      <c r="E83" s="22" t="s">
+      <c r="E83" s="19" t="s">
         <v>249</v>
       </c>
-      <c r="F83" s="38">
+      <c r="F83" s="35">
         <v>81</v>
       </c>
-      <c r="G83" s="49" t="s">
+      <c r="G83" s="44" t="s">
         <v>248</v>
       </c>
-      <c r="H83" s="45" t="str">
+      <c r="H83" s="40" t="str">
         <f t="shared" si="1"/>
         <v>NOT MATCHED</v>
       </c>
-      <c r="I83" s="35"/>
-    </row>
-    <row r="84" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="13">
+      <c r="I83" s="32"/>
+    </row>
+    <row r="84" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="10">
         <v>81</v>
       </c>
-      <c r="B84" s="14" t="s">
+      <c r="B84" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="C84" s="15" t="s">
+      <c r="C84" s="12" t="s">
         <v>251</v>
       </c>
-      <c r="D84" s="31">
+      <c r="D84" s="28">
         <v>83</v>
       </c>
-      <c r="E84" s="22" t="s">
+      <c r="E84" s="19" t="s">
         <v>252</v>
       </c>
-      <c r="F84" s="38">
+      <c r="F84" s="35">
         <v>82</v>
       </c>
-      <c r="G84" s="49" t="s">
+      <c r="G84" s="44" t="s">
         <v>251</v>
       </c>
-      <c r="H84" s="45" t="str">
+      <c r="H84" s="40" t="str">
         <f t="shared" si="1"/>
         <v>NOT MATCHED</v>
       </c>
-      <c r="I84" s="35"/>
-    </row>
-    <row r="85" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="13">
+      <c r="I84" s="32"/>
+    </row>
+    <row r="85" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="10">
         <v>82</v>
       </c>
-      <c r="B85" s="14" t="s">
+      <c r="B85" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="C85" s="15" t="s">
+      <c r="C85" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="D85" s="31">
+      <c r="D85" s="28">
         <v>84</v>
       </c>
-      <c r="E85" s="22" t="s">
+      <c r="E85" s="19" t="s">
         <v>255</v>
       </c>
-      <c r="F85" s="38">
+      <c r="F85" s="35">
         <v>83</v>
       </c>
-      <c r="G85" s="49" t="s">
+      <c r="G85" s="44" t="s">
         <v>254</v>
       </c>
-      <c r="H85" s="45" t="str">
+      <c r="H85" s="40" t="str">
         <f t="shared" si="1"/>
         <v>NOT MATCHED</v>
       </c>
-      <c r="I85" s="35"/>
-    </row>
-    <row r="86" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="13">
+      <c r="I85" s="32"/>
+    </row>
+    <row r="86" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="10">
         <v>83</v>
       </c>
-      <c r="B86" s="14" t="s">
+      <c r="B86" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="C86" s="15" t="s">
+      <c r="C86" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="D86" s="31">
+      <c r="D86" s="28">
         <v>85</v>
       </c>
-      <c r="E86" s="22" t="s">
+      <c r="E86" s="19" t="s">
         <v>258</v>
       </c>
-      <c r="F86" s="38">
+      <c r="F86" s="35">
         <v>84</v>
       </c>
-      <c r="G86" s="49" t="s">
+      <c r="G86" s="44" t="s">
         <v>257</v>
       </c>
-      <c r="H86" s="45" t="str">
+      <c r="H86" s="40" t="str">
         <f t="shared" si="1"/>
         <v>NOT MATCHED</v>
       </c>
-      <c r="I86" s="35"/>
-    </row>
-    <row r="87" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="13">
+      <c r="I86" s="32"/>
+    </row>
+    <row r="87" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="10">
         <v>84</v>
       </c>
-      <c r="B87" s="14" t="s">
+      <c r="B87" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="C87" s="15" t="s">
+      <c r="C87" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="D87" s="31">
+      <c r="D87" s="28">
         <v>86</v>
       </c>
-      <c r="E87" s="22" t="s">
+      <c r="E87" s="19" t="s">
         <v>261</v>
       </c>
-      <c r="F87" s="38">
+      <c r="F87" s="35">
         <v>85</v>
       </c>
-      <c r="G87" s="49" t="s">
+      <c r="G87" s="44" t="s">
         <v>260</v>
       </c>
-      <c r="H87" s="45" t="str">
+      <c r="H87" s="40" t="str">
         <f t="shared" si="1"/>
         <v>NOT MATCHED</v>
       </c>
-      <c r="I87" s="35"/>
-    </row>
-    <row r="88" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="13">
+      <c r="I87" s="32"/>
+    </row>
+    <row r="88" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="10">
         <v>85</v>
       </c>
-      <c r="B88" s="14" t="s">
+      <c r="B88" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="C88" s="15" t="s">
+      <c r="C88" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="D88" s="31">
+      <c r="D88" s="28">
         <v>87</v>
       </c>
-      <c r="E88" s="22" t="s">
+      <c r="E88" s="19" t="s">
         <v>264</v>
       </c>
-      <c r="F88" s="38">
+      <c r="F88" s="35">
         <v>86</v>
       </c>
-      <c r="G88" s="49" t="s">
+      <c r="G88" s="44" t="s">
         <v>263</v>
       </c>
-      <c r="H88" s="45" t="str">
+      <c r="H88" s="40" t="str">
         <f t="shared" si="1"/>
         <v>NOT MATCHED</v>
       </c>
-      <c r="I88" s="35"/>
-    </row>
-    <row r="89" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="13">
+      <c r="I88" s="32"/>
+    </row>
+    <row r="89" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="10">
         <v>86</v>
       </c>
-      <c r="B89" s="14" t="s">
+      <c r="B89" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C89" s="15" t="s">
+      <c r="C89" s="12" t="s">
         <v>266</v>
       </c>
-      <c r="D89" s="31">
+      <c r="D89" s="28">
         <v>88</v>
       </c>
-      <c r="E89" s="22" t="s">
+      <c r="E89" s="19" t="s">
         <v>267</v>
       </c>
-      <c r="F89" s="38">
+      <c r="F89" s="35">
         <v>87</v>
       </c>
-      <c r="G89" s="49" t="s">
+      <c r="G89" s="44" t="s">
         <v>266</v>
       </c>
-      <c r="H89" s="45" t="str">
+      <c r="H89" s="40" t="str">
         <f t="shared" si="1"/>
         <v>NOT MATCHED</v>
       </c>
-      <c r="I89" s="35"/>
-    </row>
-    <row r="90" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="13">
+      <c r="I89" s="32"/>
+    </row>
+    <row r="90" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="10">
         <v>87</v>
       </c>
-      <c r="B90" s="14" t="s">
+      <c r="B90" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="C90" s="15" t="s">
+      <c r="C90" s="12" t="s">
         <v>269</v>
       </c>
-      <c r="D90" s="31">
+      <c r="D90" s="28">
         <v>89</v>
       </c>
-      <c r="E90" s="22" t="s">
+      <c r="E90" s="19" t="s">
         <v>270</v>
       </c>
-      <c r="F90" s="38">
+      <c r="F90" s="35">
         <v>88</v>
       </c>
-      <c r="G90" s="49" t="s">
+      <c r="G90" s="44" t="s">
         <v>269</v>
       </c>
-      <c r="H90" s="45" t="str">
+      <c r="H90" s="40" t="str">
         <f t="shared" si="1"/>
         <v>NOT MATCHED</v>
       </c>
-      <c r="I90" s="35"/>
-    </row>
-    <row r="91" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="13">
+      <c r="I90" s="32"/>
+    </row>
+    <row r="91" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="10">
         <v>88</v>
       </c>
-      <c r="B91" s="14" t="s">
+      <c r="B91" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="C91" s="15" t="s">
+      <c r="C91" s="12" t="s">
         <v>272</v>
       </c>
-      <c r="D91" s="31">
+      <c r="D91" s="28">
         <v>90</v>
       </c>
-      <c r="E91" s="22" t="s">
+      <c r="E91" s="19" t="s">
         <v>273</v>
       </c>
-      <c r="F91" s="38">
+      <c r="F91" s="35">
         <v>89</v>
       </c>
-      <c r="G91" s="49" t="s">
+      <c r="G91" s="44" t="s">
         <v>272</v>
       </c>
-      <c r="H91" s="45" t="str">
+      <c r="H91" s="40" t="str">
         <f t="shared" si="1"/>
         <v>NOT MATCHED</v>
       </c>
-      <c r="I91" s="35"/>
-    </row>
-    <row r="92" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="13">
+      <c r="I91" s="32"/>
+    </row>
+    <row r="92" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="10">
         <v>89</v>
       </c>
-      <c r="B92" s="14" t="s">
+      <c r="B92" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="C92" s="15" t="s">
+      <c r="C92" s="12" t="s">
         <v>275</v>
       </c>
-      <c r="D92" s="31">
+      <c r="D92" s="28">
         <v>91</v>
       </c>
-      <c r="E92" s="22" t="s">
+      <c r="E92" s="19" t="s">
         <v>276</v>
       </c>
-      <c r="F92" s="38">
+      <c r="F92" s="35">
         <v>90</v>
       </c>
-      <c r="G92" s="49" t="s">
+      <c r="G92" s="44" t="s">
         <v>275</v>
       </c>
-      <c r="H92" s="45" t="str">
+      <c r="H92" s="40" t="str">
         <f t="shared" si="1"/>
         <v>NOT MATCHED</v>
       </c>
-      <c r="I92" s="35"/>
-    </row>
-    <row r="93" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="13">
+      <c r="I92" s="32"/>
+    </row>
+    <row r="93" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="10">
         <v>90</v>
       </c>
-      <c r="B93" s="14" t="s">
+      <c r="B93" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="C93" s="15" t="s">
+      <c r="C93" s="12" t="s">
         <v>278</v>
       </c>
-      <c r="D93" s="31">
+      <c r="D93" s="28">
         <v>92</v>
       </c>
-      <c r="E93" s="22" t="s">
+      <c r="E93" s="19" t="s">
         <v>279</v>
       </c>
-      <c r="F93" s="38">
+      <c r="F93" s="35">
         <v>91</v>
       </c>
-      <c r="G93" s="49" t="s">
+      <c r="G93" s="44" t="s">
         <v>278</v>
       </c>
-      <c r="H93" s="45" t="str">
+      <c r="H93" s="40" t="str">
         <f t="shared" si="1"/>
         <v>NOT MATCHED</v>
       </c>
-      <c r="I93" s="35"/>
-    </row>
-    <row r="94" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="13">
+      <c r="I93" s="32"/>
+    </row>
+    <row r="94" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="10">
         <v>91</v>
       </c>
-      <c r="B94" s="14" t="s">
+      <c r="B94" s="11" t="s">
         <v>280</v>
       </c>
-      <c r="C94" s="15" t="s">
+      <c r="C94" s="12" t="s">
         <v>281</v>
       </c>
-      <c r="D94" s="31">
+      <c r="D94" s="28">
         <v>93</v>
       </c>
-      <c r="E94" s="22" t="s">
+      <c r="E94" s="19" t="s">
         <v>282</v>
       </c>
-      <c r="F94" s="38">
+      <c r="F94" s="35">
         <v>92</v>
       </c>
-      <c r="G94" s="49" t="s">
+      <c r="G94" s="44" t="s">
         <v>281</v>
       </c>
-      <c r="H94" s="45" t="str">
+      <c r="H94" s="40" t="str">
         <f t="shared" si="1"/>
         <v>NOT MATCHED</v>
       </c>
-      <c r="I94" s="35"/>
-    </row>
-    <row r="95" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="13">
+      <c r="I94" s="32"/>
+    </row>
+    <row r="95" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="10">
         <v>92</v>
       </c>
-      <c r="B95" s="14" t="s">
+      <c r="B95" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="C95" s="15" t="s">
+      <c r="C95" s="12" t="s">
         <v>284</v>
       </c>
-      <c r="D95" s="31">
+      <c r="D95" s="28">
         <v>94</v>
       </c>
-      <c r="E95" s="22" t="s">
+      <c r="E95" s="19" t="s">
         <v>285</v>
       </c>
-      <c r="F95" s="38">
+      <c r="F95" s="35">
         <v>93</v>
       </c>
-      <c r="G95" s="49" t="s">
+      <c r="G95" s="44" t="s">
         <v>284</v>
       </c>
-      <c r="H95" s="45" t="str">
+      <c r="H95" s="40" t="str">
         <f t="shared" si="1"/>
         <v>NOT MATCHED</v>
       </c>
-      <c r="I95" s="35"/>
-    </row>
-    <row r="96" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="13">
+      <c r="I95" s="32"/>
+    </row>
+    <row r="96" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="10">
         <v>93</v>
       </c>
-      <c r="B96" s="14" t="s">
+      <c r="B96" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="C96" s="15" t="s">
+      <c r="C96" s="12" t="s">
         <v>287</v>
       </c>
-      <c r="D96" s="31">
+      <c r="D96" s="28">
         <v>95</v>
       </c>
-      <c r="E96" s="22" t="s">
+      <c r="E96" s="19" t="s">
         <v>288</v>
       </c>
-      <c r="F96" s="38">
+      <c r="F96" s="35">
         <v>94</v>
       </c>
-      <c r="G96" s="49" t="s">
+      <c r="G96" s="44" t="s">
         <v>287</v>
       </c>
-      <c r="H96" s="45" t="str">
+      <c r="H96" s="40" t="str">
         <f t="shared" si="1"/>
         <v>NOT MATCHED</v>
       </c>
-      <c r="I96" s="35"/>
-    </row>
-    <row r="97" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="13">
+      <c r="I96" s="32"/>
+    </row>
+    <row r="97" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="10">
         <v>94</v>
       </c>
-      <c r="B97" s="14" t="s">
+      <c r="B97" s="11" t="s">
         <v>289</v>
       </c>
-      <c r="C97" s="15" t="s">
+      <c r="C97" s="12" t="s">
         <v>290</v>
       </c>
-      <c r="D97" s="31">
+      <c r="D97" s="28">
         <v>96</v>
       </c>
-      <c r="E97" s="22" t="s">
+      <c r="E97" s="19" t="s">
         <v>291</v>
       </c>
-      <c r="F97" s="38">
+      <c r="F97" s="35">
         <v>95</v>
       </c>
-      <c r="G97" s="49" t="s">
+      <c r="G97" s="44" t="s">
         <v>290</v>
       </c>
-      <c r="H97" s="45" t="str">
+      <c r="H97" s="40" t="str">
         <f t="shared" si="1"/>
         <v>NOT MATCHED</v>
       </c>
-      <c r="I97" s="35"/>
-    </row>
-    <row r="98" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="13">
+      <c r="I97" s="32"/>
+    </row>
+    <row r="98" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="10">
         <v>95</v>
       </c>
-      <c r="B98" s="14" t="s">
+      <c r="B98" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="C98" s="15" t="s">
+      <c r="C98" s="12" t="s">
         <v>293</v>
       </c>
-      <c r="D98" s="31">
+      <c r="D98" s="28">
         <v>97</v>
       </c>
-      <c r="E98" s="22" t="s">
+      <c r="E98" s="19" t="s">
         <v>294</v>
       </c>
-      <c r="F98" s="38">
+      <c r="F98" s="35">
         <v>96</v>
       </c>
-      <c r="G98" s="49" t="s">
+      <c r="G98" s="44" t="s">
         <v>293</v>
       </c>
-      <c r="H98" s="45" t="str">
+      <c r="H98" s="40" t="str">
         <f t="shared" si="1"/>
         <v>NOT MATCHED</v>
       </c>
-      <c r="I98" s="35"/>
-    </row>
-    <row r="99" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="13">
+      <c r="I98" s="32"/>
+    </row>
+    <row r="99" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="10">
         <v>96</v>
       </c>
-      <c r="B99" s="14" t="s">
+      <c r="B99" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="C99" s="15" t="s">
+      <c r="C99" s="12" t="s">
         <v>296</v>
       </c>
-      <c r="D99" s="31">
+      <c r="D99" s="28">
         <v>98</v>
       </c>
-      <c r="E99" s="22" t="s">
+      <c r="E99" s="19" t="s">
         <v>297</v>
       </c>
-      <c r="F99" s="38">
+      <c r="F99" s="35">
         <v>97</v>
       </c>
-      <c r="G99" s="49" t="s">
+      <c r="G99" s="44" t="s">
         <v>296</v>
       </c>
-      <c r="H99" s="45" t="str">
+      <c r="H99" s="40" t="str">
         <f t="shared" si="1"/>
         <v>NOT MATCHED</v>
       </c>
-      <c r="I99" s="35"/>
-    </row>
-    <row r="100" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="13">
+      <c r="I99" s="32"/>
+    </row>
+    <row r="100" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="10">
         <v>97</v>
       </c>
-      <c r="B100" s="14" t="s">
+      <c r="B100" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="C100" s="15" t="s">
+      <c r="C100" s="12" t="s">
         <v>299</v>
       </c>
-      <c r="D100" s="31">
+      <c r="D100" s="28">
         <v>99</v>
       </c>
-      <c r="E100" s="22" t="s">
+      <c r="E100" s="19" t="s">
         <v>300</v>
       </c>
-      <c r="F100" s="38">
+      <c r="F100" s="35">
         <v>98</v>
       </c>
-      <c r="G100" s="49" t="s">
+      <c r="G100" s="44" t="s">
         <v>299</v>
       </c>
-      <c r="H100" s="45" t="str">
+      <c r="H100" s="40" t="str">
         <f t="shared" si="1"/>
         <v>NOT MATCHED</v>
       </c>
-      <c r="I100" s="35"/>
-    </row>
-    <row r="101" spans="1:9" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="18">
+      <c r="I100" s="32"/>
+    </row>
+    <row r="101" spans="1:9" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="15">
         <v>98</v>
       </c>
-      <c r="B101" s="19" t="s">
+      <c r="B101" s="16" t="s">
         <v>301</v>
       </c>
-      <c r="C101" s="20" t="s">
+      <c r="C101" s="17" t="s">
         <v>302</v>
       </c>
-      <c r="D101" s="32">
+      <c r="D101" s="29">
         <v>100</v>
       </c>
-      <c r="E101" s="24" t="s">
+      <c r="E101" s="21" t="s">
         <v>303</v>
       </c>
-      <c r="F101" s="38">
+      <c r="F101" s="35">
         <v>99</v>
       </c>
-      <c r="G101" s="50" t="s">
+      <c r="G101" s="45" t="s">
         <v>302</v>
       </c>
-      <c r="H101" s="46" t="str">
+      <c r="H101" s="41" t="str">
         <f t="shared" si="1"/>
         <v>NOT MATCHED</v>
       </c>
-      <c r="I101" s="36"/>
+      <c r="I101" s="33"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:I2" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <autoFilter ref="A2:I101" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="7">
+      <filters>
+        <filter val="NOT MATCHED"/>
+      </filters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:I338">
       <sortCondition ref="G2"/>
     </sortState>
@@ -4711,4 +4857,2850 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E09248A0-9399-4E82-80C3-FD48424CA98D}">
+  <dimension ref="A1:I101"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="46.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.7109375" style="37" customWidth="1"/>
+    <col min="9" max="9" width="26.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="46" t="s">
+        <v>304</v>
+      </c>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="50"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="69" t="s">
+        <v>306</v>
+      </c>
+      <c r="H2" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>1</v>
+      </c>
+      <c r="B3" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="58">
+        <v>1</v>
+      </c>
+      <c r="E3" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="70">
+        <v>1</v>
+      </c>
+      <c r="G3" s="71" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="65" t="str">
+        <f>IF(D3=F3,"MATCH","NOT MATCHED")</f>
+        <v>MATCH</v>
+      </c>
+      <c r="I3" s="31"/>
+    </row>
+    <row r="4" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
+        <v>2</v>
+      </c>
+      <c r="B4" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="56">
+        <v>2</v>
+      </c>
+      <c r="E4" s="63" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="72">
+        <v>2</v>
+      </c>
+      <c r="G4" s="73" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="66" t="str">
+        <f t="shared" ref="H4:H67" si="0">IF(D4=F4,"MATCH","NOT MATCHED")</f>
+        <v>MATCH</v>
+      </c>
+      <c r="I4" s="32"/>
+    </row>
+    <row r="5" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
+        <v>3</v>
+      </c>
+      <c r="B5" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="56">
+        <v>3</v>
+      </c>
+      <c r="E5" s="63" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="72">
+        <v>3</v>
+      </c>
+      <c r="G5" s="73" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="66" t="str">
+        <f t="shared" si="0"/>
+        <v>MATCH</v>
+      </c>
+      <c r="I5" s="32"/>
+    </row>
+    <row r="6" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
+        <v>4</v>
+      </c>
+      <c r="B6" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="56">
+        <v>4</v>
+      </c>
+      <c r="E6" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="72">
+        <v>4</v>
+      </c>
+      <c r="G6" s="73" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="66" t="str">
+        <f t="shared" si="0"/>
+        <v>MATCH</v>
+      </c>
+      <c r="I6" s="32"/>
+    </row>
+    <row r="7" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>5</v>
+      </c>
+      <c r="B7" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="56">
+        <v>5</v>
+      </c>
+      <c r="E7" s="63" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="72">
+        <v>5</v>
+      </c>
+      <c r="G7" s="73" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="66" t="str">
+        <f t="shared" si="0"/>
+        <v>MATCH</v>
+      </c>
+      <c r="I7" s="32"/>
+    </row>
+    <row r="8" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
+        <v>6</v>
+      </c>
+      <c r="B8" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="56">
+        <v>6</v>
+      </c>
+      <c r="E8" s="63" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="72">
+        <v>6</v>
+      </c>
+      <c r="G8" s="73" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="66" t="str">
+        <f t="shared" si="0"/>
+        <v>MATCH</v>
+      </c>
+      <c r="I8" s="32"/>
+    </row>
+    <row r="9" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>7</v>
+      </c>
+      <c r="B9" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="56">
+        <v>7</v>
+      </c>
+      <c r="E9" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="72">
+        <v>7</v>
+      </c>
+      <c r="G9" s="73" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="66" t="str">
+        <f t="shared" si="0"/>
+        <v>MATCH</v>
+      </c>
+      <c r="I9" s="32"/>
+    </row>
+    <row r="10" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="56">
+        <v>8</v>
+      </c>
+      <c r="E10" s="63" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="72">
+        <v>8</v>
+      </c>
+      <c r="G10" s="73" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="66" t="str">
+        <f t="shared" si="0"/>
+        <v>MATCH</v>
+      </c>
+      <c r="I10" s="32"/>
+    </row>
+    <row r="11" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
+        <v>9</v>
+      </c>
+      <c r="B11" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="56">
+        <v>9</v>
+      </c>
+      <c r="E11" s="63" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="72">
+        <v>9</v>
+      </c>
+      <c r="G11" s="73" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" s="66" t="str">
+        <f t="shared" si="0"/>
+        <v>MATCH</v>
+      </c>
+      <c r="I11" s="32"/>
+    </row>
+    <row r="12" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
+        <v>10</v>
+      </c>
+      <c r="B12" s="59" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="56">
+        <v>10</v>
+      </c>
+      <c r="E12" s="63" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="72">
+        <v>10</v>
+      </c>
+      <c r="G12" s="73" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="66" t="str">
+        <f t="shared" si="0"/>
+        <v>MATCH</v>
+      </c>
+      <c r="I12" s="32"/>
+    </row>
+    <row r="13" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="10">
+        <v>11</v>
+      </c>
+      <c r="B13" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="56">
+        <v>11</v>
+      </c>
+      <c r="E13" s="63" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="72">
+        <v>11</v>
+      </c>
+      <c r="G13" s="73" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="66" t="str">
+        <f t="shared" si="0"/>
+        <v>MATCH</v>
+      </c>
+      <c r="I13" s="32"/>
+    </row>
+    <row r="14" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
+        <v>12</v>
+      </c>
+      <c r="B14" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="56">
+        <v>12</v>
+      </c>
+      <c r="E14" s="63" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="72">
+        <v>12</v>
+      </c>
+      <c r="G14" s="73" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" s="66" t="str">
+        <f t="shared" si="0"/>
+        <v>MATCH</v>
+      </c>
+      <c r="I14" s="32"/>
+    </row>
+    <row r="15" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="10">
+        <v>13</v>
+      </c>
+      <c r="B15" s="59" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="56">
+        <v>13</v>
+      </c>
+      <c r="E15" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="72">
+        <v>13</v>
+      </c>
+      <c r="G15" s="73" t="s">
+        <v>47</v>
+      </c>
+      <c r="H15" s="66" t="str">
+        <f t="shared" si="0"/>
+        <v>MATCH</v>
+      </c>
+      <c r="I15" s="32"/>
+    </row>
+    <row r="16" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="10">
+        <v>14</v>
+      </c>
+      <c r="B16" s="59" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="56">
+        <v>14</v>
+      </c>
+      <c r="E16" s="63" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" s="72">
+        <v>14</v>
+      </c>
+      <c r="G16" s="73" t="s">
+        <v>50</v>
+      </c>
+      <c r="H16" s="66" t="str">
+        <f t="shared" si="0"/>
+        <v>MATCH</v>
+      </c>
+      <c r="I16" s="32"/>
+    </row>
+    <row r="17" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="10">
+        <v>15</v>
+      </c>
+      <c r="B17" s="59" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="56">
+        <v>15</v>
+      </c>
+      <c r="E17" s="63" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" s="72">
+        <v>15</v>
+      </c>
+      <c r="G17" s="73" t="s">
+        <v>53</v>
+      </c>
+      <c r="H17" s="66" t="str">
+        <f t="shared" si="0"/>
+        <v>MATCH</v>
+      </c>
+      <c r="I17" s="32"/>
+    </row>
+    <row r="18" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="10">
+        <v>16</v>
+      </c>
+      <c r="B18" s="59" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="56">
+        <v>16</v>
+      </c>
+      <c r="E18" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="F18" s="72">
+        <v>16</v>
+      </c>
+      <c r="G18" s="73" t="s">
+        <v>56</v>
+      </c>
+      <c r="H18" s="66" t="str">
+        <f t="shared" si="0"/>
+        <v>MATCH</v>
+      </c>
+      <c r="I18" s="32"/>
+    </row>
+    <row r="19" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="10">
+        <v>17</v>
+      </c>
+      <c r="B19" s="59" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="56">
+        <v>17</v>
+      </c>
+      <c r="E19" s="63" t="s">
+        <v>60</v>
+      </c>
+      <c r="F19" s="72">
+        <v>17</v>
+      </c>
+      <c r="G19" s="73" t="s">
+        <v>59</v>
+      </c>
+      <c r="H19" s="66" t="str">
+        <f t="shared" si="0"/>
+        <v>MATCH</v>
+      </c>
+      <c r="I19" s="32"/>
+    </row>
+    <row r="20" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="10">
+        <v>18</v>
+      </c>
+      <c r="B20" s="59" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="56">
+        <v>18</v>
+      </c>
+      <c r="E20" s="63" t="s">
+        <v>63</v>
+      </c>
+      <c r="F20" s="72">
+        <v>18</v>
+      </c>
+      <c r="G20" s="73" t="s">
+        <v>62</v>
+      </c>
+      <c r="H20" s="66" t="str">
+        <f t="shared" si="0"/>
+        <v>MATCH</v>
+      </c>
+      <c r="I20" s="32"/>
+    </row>
+    <row r="21" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="10">
+        <v>19</v>
+      </c>
+      <c r="B21" s="59" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="56">
+        <v>19</v>
+      </c>
+      <c r="E21" s="63" t="s">
+        <v>66</v>
+      </c>
+      <c r="F21" s="72">
+        <v>19</v>
+      </c>
+      <c r="G21" s="73" t="s">
+        <v>65</v>
+      </c>
+      <c r="H21" s="66" t="str">
+        <f t="shared" si="0"/>
+        <v>MATCH</v>
+      </c>
+      <c r="I21" s="32"/>
+    </row>
+    <row r="22" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="10">
+        <v>20</v>
+      </c>
+      <c r="B22" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="56">
+        <v>20</v>
+      </c>
+      <c r="E22" s="63" t="s">
+        <v>69</v>
+      </c>
+      <c r="F22" s="72">
+        <v>20</v>
+      </c>
+      <c r="G22" s="73" t="s">
+        <v>68</v>
+      </c>
+      <c r="H22" s="66" t="str">
+        <f t="shared" si="0"/>
+        <v>MATCH</v>
+      </c>
+      <c r="I22" s="32"/>
+    </row>
+    <row r="23" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="10">
+        <v>21</v>
+      </c>
+      <c r="B23" s="59" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" s="56">
+        <v>21</v>
+      </c>
+      <c r="E23" s="63" t="s">
+        <v>72</v>
+      </c>
+      <c r="F23" s="72">
+        <v>21</v>
+      </c>
+      <c r="G23" s="73" t="s">
+        <v>71</v>
+      </c>
+      <c r="H23" s="66" t="str">
+        <f t="shared" si="0"/>
+        <v>MATCH</v>
+      </c>
+      <c r="I23" s="32"/>
+    </row>
+    <row r="24" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="10">
+        <v>22</v>
+      </c>
+      <c r="B24" s="59" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" s="56">
+        <v>22</v>
+      </c>
+      <c r="E24" s="63" t="s">
+        <v>75</v>
+      </c>
+      <c r="F24" s="72">
+        <v>22</v>
+      </c>
+      <c r="G24" s="73" t="s">
+        <v>74</v>
+      </c>
+      <c r="H24" s="66" t="str">
+        <f t="shared" si="0"/>
+        <v>MATCH</v>
+      </c>
+      <c r="I24" s="32"/>
+    </row>
+    <row r="25" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="10">
+        <v>23</v>
+      </c>
+      <c r="B25" s="59" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" s="56">
+        <v>23</v>
+      </c>
+      <c r="E25" s="63" t="s">
+        <v>78</v>
+      </c>
+      <c r="F25" s="72">
+        <v>23</v>
+      </c>
+      <c r="G25" s="73" t="s">
+        <v>77</v>
+      </c>
+      <c r="H25" s="66" t="str">
+        <f t="shared" si="0"/>
+        <v>MATCH</v>
+      </c>
+      <c r="I25" s="32"/>
+    </row>
+    <row r="26" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="10">
+        <v>24</v>
+      </c>
+      <c r="B26" s="59" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" s="56">
+        <v>24</v>
+      </c>
+      <c r="E26" s="63" t="s">
+        <v>81</v>
+      </c>
+      <c r="F26" s="72">
+        <v>24</v>
+      </c>
+      <c r="G26" s="73" t="s">
+        <v>80</v>
+      </c>
+      <c r="H26" s="66" t="str">
+        <f t="shared" si="0"/>
+        <v>MATCH</v>
+      </c>
+      <c r="I26" s="32"/>
+    </row>
+    <row r="27" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="10">
+        <v>25</v>
+      </c>
+      <c r="B27" s="59" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D27" s="56">
+        <v>25</v>
+      </c>
+      <c r="E27" s="63" t="s">
+        <v>84</v>
+      </c>
+      <c r="F27" s="72">
+        <v>25</v>
+      </c>
+      <c r="G27" s="73" t="s">
+        <v>83</v>
+      </c>
+      <c r="H27" s="66" t="str">
+        <f t="shared" si="0"/>
+        <v>MATCH</v>
+      </c>
+      <c r="I27" s="32"/>
+    </row>
+    <row r="28" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="10">
+        <v>26</v>
+      </c>
+      <c r="B28" s="59" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D28" s="56">
+        <v>26</v>
+      </c>
+      <c r="E28" s="63" t="s">
+        <v>87</v>
+      </c>
+      <c r="F28" s="72">
+        <v>26</v>
+      </c>
+      <c r="G28" s="73" t="s">
+        <v>86</v>
+      </c>
+      <c r="H28" s="66" t="str">
+        <f t="shared" si="0"/>
+        <v>MATCH</v>
+      </c>
+      <c r="I28" s="32"/>
+    </row>
+    <row r="29" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="10">
+        <v>27</v>
+      </c>
+      <c r="B29" s="59" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D29" s="56">
+        <v>27</v>
+      </c>
+      <c r="E29" s="63" t="s">
+        <v>90</v>
+      </c>
+      <c r="F29" s="72">
+        <v>27</v>
+      </c>
+      <c r="G29" s="73" t="s">
+        <v>89</v>
+      </c>
+      <c r="H29" s="66" t="str">
+        <f t="shared" si="0"/>
+        <v>MATCH</v>
+      </c>
+      <c r="I29" s="32"/>
+    </row>
+    <row r="30" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="10">
+        <v>28</v>
+      </c>
+      <c r="B30" s="59" t="s">
+        <v>91</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D30" s="56">
+        <v>28</v>
+      </c>
+      <c r="E30" s="63" t="s">
+        <v>93</v>
+      </c>
+      <c r="F30" s="72">
+        <v>28</v>
+      </c>
+      <c r="G30" s="73" t="s">
+        <v>92</v>
+      </c>
+      <c r="H30" s="66" t="str">
+        <f t="shared" si="0"/>
+        <v>MATCH</v>
+      </c>
+      <c r="I30" s="32"/>
+    </row>
+    <row r="31" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="10">
+        <v>29</v>
+      </c>
+      <c r="B31" s="59" t="s">
+        <v>94</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D31" s="56">
+        <v>29</v>
+      </c>
+      <c r="E31" s="63" t="s">
+        <v>96</v>
+      </c>
+      <c r="F31" s="72">
+        <v>29</v>
+      </c>
+      <c r="G31" s="73" t="s">
+        <v>95</v>
+      </c>
+      <c r="H31" s="66" t="str">
+        <f t="shared" si="0"/>
+        <v>MATCH</v>
+      </c>
+      <c r="I31" s="32"/>
+    </row>
+    <row r="32" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="10">
+        <v>30</v>
+      </c>
+      <c r="B32" s="59" t="s">
+        <v>97</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D32" s="56">
+        <v>30</v>
+      </c>
+      <c r="E32" s="63" t="s">
+        <v>99</v>
+      </c>
+      <c r="F32" s="72">
+        <v>30</v>
+      </c>
+      <c r="G32" s="73" t="s">
+        <v>98</v>
+      </c>
+      <c r="H32" s="66" t="str">
+        <f t="shared" si="0"/>
+        <v>MATCH</v>
+      </c>
+      <c r="I32" s="32"/>
+    </row>
+    <row r="33" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="10">
+        <v>31</v>
+      </c>
+      <c r="B33" s="59" t="s">
+        <v>100</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D33" s="56">
+        <v>31</v>
+      </c>
+      <c r="E33" s="63" t="s">
+        <v>102</v>
+      </c>
+      <c r="F33" s="72">
+        <v>31</v>
+      </c>
+      <c r="G33" s="73" t="s">
+        <v>101</v>
+      </c>
+      <c r="H33" s="66" t="str">
+        <f t="shared" si="0"/>
+        <v>MATCH</v>
+      </c>
+      <c r="I33" s="32"/>
+    </row>
+    <row r="34" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="10">
+        <v>32</v>
+      </c>
+      <c r="B34" s="59" t="s">
+        <v>103</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D34" s="56">
+        <v>32</v>
+      </c>
+      <c r="E34" s="63" t="s">
+        <v>105</v>
+      </c>
+      <c r="F34" s="72">
+        <v>32</v>
+      </c>
+      <c r="G34" s="73" t="s">
+        <v>104</v>
+      </c>
+      <c r="H34" s="66" t="str">
+        <f t="shared" si="0"/>
+        <v>MATCH</v>
+      </c>
+      <c r="I34" s="32"/>
+    </row>
+    <row r="35" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="10">
+        <v>33</v>
+      </c>
+      <c r="B35" s="59" t="s">
+        <v>106</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="D35" s="56">
+        <v>33</v>
+      </c>
+      <c r="E35" s="63" t="s">
+        <v>108</v>
+      </c>
+      <c r="F35" s="72">
+        <v>33</v>
+      </c>
+      <c r="G35" s="73" t="s">
+        <v>107</v>
+      </c>
+      <c r="H35" s="66" t="str">
+        <f t="shared" si="0"/>
+        <v>MATCH</v>
+      </c>
+      <c r="I35" s="32"/>
+    </row>
+    <row r="36" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="10">
+        <v>34</v>
+      </c>
+      <c r="B36" s="59" t="s">
+        <v>109</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D36" s="56">
+        <v>34</v>
+      </c>
+      <c r="E36" s="63" t="s">
+        <v>111</v>
+      </c>
+      <c r="F36" s="72">
+        <v>34</v>
+      </c>
+      <c r="G36" s="73" t="s">
+        <v>110</v>
+      </c>
+      <c r="H36" s="66" t="str">
+        <f t="shared" si="0"/>
+        <v>MATCH</v>
+      </c>
+      <c r="I36" s="32"/>
+    </row>
+    <row r="37" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="10">
+        <v>35</v>
+      </c>
+      <c r="B37" s="59" t="s">
+        <v>112</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D37" s="56">
+        <v>35</v>
+      </c>
+      <c r="E37" s="63" t="s">
+        <v>114</v>
+      </c>
+      <c r="F37" s="72">
+        <v>35</v>
+      </c>
+      <c r="G37" s="73" t="s">
+        <v>113</v>
+      </c>
+      <c r="H37" s="66" t="str">
+        <f t="shared" si="0"/>
+        <v>MATCH</v>
+      </c>
+      <c r="I37" s="32"/>
+    </row>
+    <row r="38" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="10">
+        <v>36</v>
+      </c>
+      <c r="B38" s="59" t="s">
+        <v>115</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="D38" s="56">
+        <v>36</v>
+      </c>
+      <c r="E38" s="63" t="s">
+        <v>117</v>
+      </c>
+      <c r="F38" s="72">
+        <v>36</v>
+      </c>
+      <c r="G38" s="73" t="s">
+        <v>116</v>
+      </c>
+      <c r="H38" s="66" t="str">
+        <f t="shared" si="0"/>
+        <v>MATCH</v>
+      </c>
+      <c r="I38" s="32"/>
+    </row>
+    <row r="39" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="10">
+        <v>37</v>
+      </c>
+      <c r="B39" s="59" t="s">
+        <v>118</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D39" s="56">
+        <v>37</v>
+      </c>
+      <c r="E39" s="63" t="s">
+        <v>120</v>
+      </c>
+      <c r="F39" s="74">
+        <v>37</v>
+      </c>
+      <c r="G39" s="73" t="s">
+        <v>119</v>
+      </c>
+      <c r="H39" s="66" t="str">
+        <f t="shared" si="0"/>
+        <v>MATCH</v>
+      </c>
+      <c r="I39" s="32"/>
+    </row>
+    <row r="40" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="10">
+        <v>38</v>
+      </c>
+      <c r="B40" s="59" t="s">
+        <v>121</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="D40" s="56">
+        <v>38</v>
+      </c>
+      <c r="E40" s="63" t="s">
+        <v>123</v>
+      </c>
+      <c r="F40" s="74">
+        <v>38</v>
+      </c>
+      <c r="G40" s="73" t="s">
+        <v>122</v>
+      </c>
+      <c r="H40" s="66" t="str">
+        <f t="shared" si="0"/>
+        <v>MATCH</v>
+      </c>
+      <c r="I40" s="32"/>
+    </row>
+    <row r="41" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="10">
+        <v>39</v>
+      </c>
+      <c r="B41" s="59" t="s">
+        <v>124</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="D41" s="56">
+        <v>39</v>
+      </c>
+      <c r="E41" s="63" t="s">
+        <v>126</v>
+      </c>
+      <c r="F41" s="74">
+        <v>39</v>
+      </c>
+      <c r="G41" s="75" t="s">
+        <v>125</v>
+      </c>
+      <c r="H41" s="66" t="str">
+        <f t="shared" si="0"/>
+        <v>MATCH</v>
+      </c>
+      <c r="I41" s="32"/>
+    </row>
+    <row r="42" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="10">
+        <v>40</v>
+      </c>
+      <c r="B42" s="59" t="s">
+        <v>127</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="D42" s="56">
+        <v>40</v>
+      </c>
+      <c r="E42" s="63" t="s">
+        <v>129</v>
+      </c>
+      <c r="F42" s="74">
+        <v>40</v>
+      </c>
+      <c r="G42" s="75" t="s">
+        <v>128</v>
+      </c>
+      <c r="H42" s="66" t="str">
+        <f t="shared" si="0"/>
+        <v>MATCH</v>
+      </c>
+      <c r="I42" s="32"/>
+    </row>
+    <row r="43" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="10">
+        <v>41</v>
+      </c>
+      <c r="B43" s="59" t="s">
+        <v>130</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="D43" s="56">
+        <v>41</v>
+      </c>
+      <c r="E43" s="63" t="s">
+        <v>132</v>
+      </c>
+      <c r="F43" s="74">
+        <v>41</v>
+      </c>
+      <c r="G43" s="75" t="s">
+        <v>131</v>
+      </c>
+      <c r="H43" s="66" t="str">
+        <f t="shared" si="0"/>
+        <v>MATCH</v>
+      </c>
+      <c r="I43" s="32"/>
+    </row>
+    <row r="44" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="10">
+        <v>42</v>
+      </c>
+      <c r="B44" s="59" t="s">
+        <v>133</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="D44" s="56">
+        <v>42</v>
+      </c>
+      <c r="E44" s="63" t="s">
+        <v>135</v>
+      </c>
+      <c r="F44" s="74">
+        <v>42</v>
+      </c>
+      <c r="G44" s="75" t="s">
+        <v>134</v>
+      </c>
+      <c r="H44" s="66" t="str">
+        <f t="shared" si="0"/>
+        <v>MATCH</v>
+      </c>
+      <c r="I44" s="32"/>
+    </row>
+    <row r="45" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="10">
+        <v>43</v>
+      </c>
+      <c r="B45" s="59" t="s">
+        <v>136</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="D45" s="56">
+        <v>43</v>
+      </c>
+      <c r="E45" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="F45" s="74">
+        <v>43</v>
+      </c>
+      <c r="G45" s="75" t="s">
+        <v>137</v>
+      </c>
+      <c r="H45" s="66" t="str">
+        <f t="shared" si="0"/>
+        <v>MATCH</v>
+      </c>
+      <c r="I45" s="32"/>
+    </row>
+    <row r="46" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="10">
+        <v>44</v>
+      </c>
+      <c r="B46" s="59" t="s">
+        <v>139</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D46" s="56">
+        <v>44</v>
+      </c>
+      <c r="E46" s="63" t="s">
+        <v>141</v>
+      </c>
+      <c r="F46" s="74">
+        <v>44</v>
+      </c>
+      <c r="G46" s="75" t="s">
+        <v>140</v>
+      </c>
+      <c r="H46" s="66" t="str">
+        <f t="shared" si="0"/>
+        <v>MATCH</v>
+      </c>
+      <c r="I46" s="32"/>
+    </row>
+    <row r="47" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="10">
+        <v>45</v>
+      </c>
+      <c r="B47" s="59" t="s">
+        <v>142</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="D47" s="56">
+        <v>45</v>
+      </c>
+      <c r="E47" s="63" t="s">
+        <v>144</v>
+      </c>
+      <c r="F47" s="74">
+        <v>45</v>
+      </c>
+      <c r="G47" s="75" t="s">
+        <v>143</v>
+      </c>
+      <c r="H47" s="66" t="str">
+        <f t="shared" si="0"/>
+        <v>MATCH</v>
+      </c>
+      <c r="I47" s="32"/>
+    </row>
+    <row r="48" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="10">
+        <v>46</v>
+      </c>
+      <c r="B48" s="59" t="s">
+        <v>145</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="D48" s="56">
+        <v>46</v>
+      </c>
+      <c r="E48" s="63" t="s">
+        <v>147</v>
+      </c>
+      <c r="F48" s="74">
+        <v>46</v>
+      </c>
+      <c r="G48" s="75" t="s">
+        <v>146</v>
+      </c>
+      <c r="H48" s="66" t="str">
+        <f t="shared" si="0"/>
+        <v>MATCH</v>
+      </c>
+      <c r="I48" s="32"/>
+    </row>
+    <row r="49" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="10">
+        <v>47</v>
+      </c>
+      <c r="B49" s="59" t="s">
+        <v>148</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="D49" s="56">
+        <v>47</v>
+      </c>
+      <c r="E49" s="63" t="s">
+        <v>150</v>
+      </c>
+      <c r="F49" s="74">
+        <v>47</v>
+      </c>
+      <c r="G49" s="75" t="s">
+        <v>149</v>
+      </c>
+      <c r="H49" s="66" t="str">
+        <f t="shared" si="0"/>
+        <v>MATCH</v>
+      </c>
+      <c r="I49" s="32"/>
+    </row>
+    <row r="50" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="10">
+        <v>48</v>
+      </c>
+      <c r="B50" s="59" t="s">
+        <v>151</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="D50" s="56">
+        <v>48</v>
+      </c>
+      <c r="E50" s="63" t="s">
+        <v>153</v>
+      </c>
+      <c r="F50" s="74">
+        <v>48</v>
+      </c>
+      <c r="G50" s="75" t="s">
+        <v>152</v>
+      </c>
+      <c r="H50" s="66" t="str">
+        <f t="shared" si="0"/>
+        <v>MATCH</v>
+      </c>
+      <c r="I50" s="32"/>
+    </row>
+    <row r="51" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="10">
+        <v>49</v>
+      </c>
+      <c r="B51" s="59" t="s">
+        <v>154</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="D51" s="56">
+        <v>49</v>
+      </c>
+      <c r="E51" s="63" t="s">
+        <v>156</v>
+      </c>
+      <c r="F51" s="74">
+        <v>49</v>
+      </c>
+      <c r="G51" s="75" t="s">
+        <v>155</v>
+      </c>
+      <c r="H51" s="66" t="str">
+        <f t="shared" si="0"/>
+        <v>MATCH</v>
+      </c>
+      <c r="I51" s="32"/>
+    </row>
+    <row r="52" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="10">
+        <v>50</v>
+      </c>
+      <c r="B52" s="59" t="s">
+        <v>157</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="D52" s="56">
+        <v>50</v>
+      </c>
+      <c r="E52" s="63" t="s">
+        <v>159</v>
+      </c>
+      <c r="F52" s="74">
+        <v>50</v>
+      </c>
+      <c r="G52" s="75" t="s">
+        <v>158</v>
+      </c>
+      <c r="H52" s="66" t="str">
+        <f t="shared" si="0"/>
+        <v>MATCH</v>
+      </c>
+      <c r="I52" s="32"/>
+    </row>
+    <row r="53" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="10">
+        <v>51</v>
+      </c>
+      <c r="B53" s="59" t="s">
+        <v>160</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D53" s="56">
+        <v>51</v>
+      </c>
+      <c r="E53" s="63" t="s">
+        <v>162</v>
+      </c>
+      <c r="F53" s="74">
+        <v>51</v>
+      </c>
+      <c r="G53" s="75" t="s">
+        <v>161</v>
+      </c>
+      <c r="H53" s="66" t="str">
+        <f t="shared" si="0"/>
+        <v>MATCH</v>
+      </c>
+      <c r="I53" s="32"/>
+    </row>
+    <row r="54" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="10">
+        <v>52</v>
+      </c>
+      <c r="B54" s="59" t="s">
+        <v>163</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="D54" s="56">
+        <v>52</v>
+      </c>
+      <c r="E54" s="63" t="s">
+        <v>165</v>
+      </c>
+      <c r="F54" s="74">
+        <v>52</v>
+      </c>
+      <c r="G54" s="75" t="s">
+        <v>164</v>
+      </c>
+      <c r="H54" s="66" t="str">
+        <f t="shared" si="0"/>
+        <v>MATCH</v>
+      </c>
+      <c r="I54" s="32"/>
+    </row>
+    <row r="55" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="10">
+        <v>53</v>
+      </c>
+      <c r="B55" s="59" t="s">
+        <v>166</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="D55" s="56">
+        <v>53</v>
+      </c>
+      <c r="E55" s="63" t="s">
+        <v>168</v>
+      </c>
+      <c r="F55" s="74">
+        <v>53</v>
+      </c>
+      <c r="G55" s="75" t="s">
+        <v>167</v>
+      </c>
+      <c r="H55" s="66" t="str">
+        <f t="shared" si="0"/>
+        <v>MATCH</v>
+      </c>
+      <c r="I55" s="32"/>
+    </row>
+    <row r="56" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="10">
+        <v>54</v>
+      </c>
+      <c r="B56" s="59" t="s">
+        <v>169</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="D56" s="56">
+        <v>54</v>
+      </c>
+      <c r="E56" s="63" t="s">
+        <v>171</v>
+      </c>
+      <c r="F56" s="74">
+        <v>54</v>
+      </c>
+      <c r="G56" s="75" t="s">
+        <v>170</v>
+      </c>
+      <c r="H56" s="66" t="str">
+        <f t="shared" si="0"/>
+        <v>MATCH</v>
+      </c>
+      <c r="I56" s="32"/>
+    </row>
+    <row r="57" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="10">
+        <v>55</v>
+      </c>
+      <c r="B57" s="59" t="s">
+        <v>172</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="D57" s="56">
+        <v>55</v>
+      </c>
+      <c r="E57" s="63" t="s">
+        <v>174</v>
+      </c>
+      <c r="F57" s="74">
+        <v>55</v>
+      </c>
+      <c r="G57" s="75" t="s">
+        <v>173</v>
+      </c>
+      <c r="H57" s="66" t="str">
+        <f t="shared" si="0"/>
+        <v>MATCH</v>
+      </c>
+      <c r="I57" s="32"/>
+    </row>
+    <row r="58" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="10">
+        <v>56</v>
+      </c>
+      <c r="B58" s="59" t="s">
+        <v>175</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="D58" s="56">
+        <v>56</v>
+      </c>
+      <c r="E58" s="63" t="s">
+        <v>177</v>
+      </c>
+      <c r="F58" s="74">
+        <v>56</v>
+      </c>
+      <c r="G58" s="75" t="s">
+        <v>176</v>
+      </c>
+      <c r="H58" s="66" t="str">
+        <f t="shared" si="0"/>
+        <v>MATCH</v>
+      </c>
+      <c r="I58" s="32"/>
+    </row>
+    <row r="59" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="10">
+        <v>57</v>
+      </c>
+      <c r="B59" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="D59" s="56">
+        <v>57</v>
+      </c>
+      <c r="E59" s="63" t="s">
+        <v>180</v>
+      </c>
+      <c r="F59" s="74">
+        <v>57</v>
+      </c>
+      <c r="G59" s="75" t="s">
+        <v>179</v>
+      </c>
+      <c r="H59" s="66" t="str">
+        <f t="shared" si="0"/>
+        <v>MATCH</v>
+      </c>
+      <c r="I59" s="32"/>
+    </row>
+    <row r="60" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="10">
+        <v>58</v>
+      </c>
+      <c r="B60" s="59" t="s">
+        <v>181</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="D60" s="56">
+        <v>58</v>
+      </c>
+      <c r="E60" s="63" t="s">
+        <v>183</v>
+      </c>
+      <c r="F60" s="74">
+        <v>58</v>
+      </c>
+      <c r="G60" s="75" t="s">
+        <v>182</v>
+      </c>
+      <c r="H60" s="66" t="str">
+        <f t="shared" si="0"/>
+        <v>MATCH</v>
+      </c>
+      <c r="I60" s="32"/>
+    </row>
+    <row r="61" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="10">
+        <v>59</v>
+      </c>
+      <c r="B61" s="59" t="s">
+        <v>307</v>
+      </c>
+      <c r="C61" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="D61" s="56">
+        <v>59</v>
+      </c>
+      <c r="E61" s="63" t="s">
+        <v>309</v>
+      </c>
+      <c r="F61" s="74">
+        <v>59</v>
+      </c>
+      <c r="G61" s="75" t="s">
+        <v>305</v>
+      </c>
+      <c r="H61" s="66" t="str">
+        <f t="shared" si="0"/>
+        <v>MATCH</v>
+      </c>
+      <c r="I61" s="32"/>
+    </row>
+    <row r="62" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="10">
+        <v>60</v>
+      </c>
+      <c r="B62" s="59" t="s">
+        <v>184</v>
+      </c>
+      <c r="C62" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="D62" s="56">
+        <v>60</v>
+      </c>
+      <c r="E62" s="63" t="s">
+        <v>186</v>
+      </c>
+      <c r="F62" s="74">
+        <v>60</v>
+      </c>
+      <c r="G62" s="75" t="s">
+        <v>185</v>
+      </c>
+      <c r="H62" s="66" t="str">
+        <f t="shared" si="0"/>
+        <v>MATCH</v>
+      </c>
+      <c r="I62" s="32"/>
+    </row>
+    <row r="63" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="10">
+        <v>61</v>
+      </c>
+      <c r="B63" s="59" t="s">
+        <v>187</v>
+      </c>
+      <c r="C63" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="D63" s="56">
+        <v>61</v>
+      </c>
+      <c r="E63" s="63" t="s">
+        <v>189</v>
+      </c>
+      <c r="F63" s="74">
+        <v>61</v>
+      </c>
+      <c r="G63" s="75" t="s">
+        <v>188</v>
+      </c>
+      <c r="H63" s="66" t="str">
+        <f t="shared" si="0"/>
+        <v>MATCH</v>
+      </c>
+      <c r="I63" s="32"/>
+    </row>
+    <row r="64" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="10">
+        <v>62</v>
+      </c>
+      <c r="B64" s="59" t="s">
+        <v>190</v>
+      </c>
+      <c r="C64" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="D64" s="56">
+        <v>62</v>
+      </c>
+      <c r="E64" s="63" t="s">
+        <v>192</v>
+      </c>
+      <c r="F64" s="74">
+        <v>62</v>
+      </c>
+      <c r="G64" s="75" t="s">
+        <v>191</v>
+      </c>
+      <c r="H64" s="66" t="str">
+        <f t="shared" si="0"/>
+        <v>MATCH</v>
+      </c>
+      <c r="I64" s="32"/>
+    </row>
+    <row r="65" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="10">
+        <v>63</v>
+      </c>
+      <c r="B65" s="59" t="s">
+        <v>193</v>
+      </c>
+      <c r="C65" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="D65" s="56">
+        <v>63</v>
+      </c>
+      <c r="E65" s="63" t="s">
+        <v>195</v>
+      </c>
+      <c r="F65" s="74">
+        <v>63</v>
+      </c>
+      <c r="G65" s="75" t="s">
+        <v>194</v>
+      </c>
+      <c r="H65" s="66" t="str">
+        <f t="shared" si="0"/>
+        <v>MATCH</v>
+      </c>
+      <c r="I65" s="32"/>
+    </row>
+    <row r="66" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="10">
+        <v>64</v>
+      </c>
+      <c r="B66" s="59" t="s">
+        <v>196</v>
+      </c>
+      <c r="C66" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="D66" s="56">
+        <v>64</v>
+      </c>
+      <c r="E66" s="63" t="s">
+        <v>198</v>
+      </c>
+      <c r="F66" s="74">
+        <v>64</v>
+      </c>
+      <c r="G66" s="75" t="s">
+        <v>197</v>
+      </c>
+      <c r="H66" s="66" t="str">
+        <f t="shared" si="0"/>
+        <v>MATCH</v>
+      </c>
+      <c r="I66" s="32"/>
+    </row>
+    <row r="67" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="10">
+        <v>65</v>
+      </c>
+      <c r="B67" s="59" t="s">
+        <v>199</v>
+      </c>
+      <c r="C67" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="D67" s="56">
+        <v>65</v>
+      </c>
+      <c r="E67" s="63" t="s">
+        <v>201</v>
+      </c>
+      <c r="F67" s="74">
+        <v>65</v>
+      </c>
+      <c r="G67" s="75" t="s">
+        <v>200</v>
+      </c>
+      <c r="H67" s="66" t="str">
+        <f t="shared" si="0"/>
+        <v>MATCH</v>
+      </c>
+      <c r="I67" s="32"/>
+    </row>
+    <row r="68" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="10">
+        <v>66</v>
+      </c>
+      <c r="B68" s="59" t="s">
+        <v>202</v>
+      </c>
+      <c r="C68" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="D68" s="56">
+        <v>66</v>
+      </c>
+      <c r="E68" s="63" t="s">
+        <v>204</v>
+      </c>
+      <c r="F68" s="74">
+        <v>66</v>
+      </c>
+      <c r="G68" s="75" t="s">
+        <v>203</v>
+      </c>
+      <c r="H68" s="66" t="str">
+        <f t="shared" ref="H68:H101" si="1">IF(D68=F68,"MATCH","NOT MATCHED")</f>
+        <v>MATCH</v>
+      </c>
+      <c r="I68" s="32"/>
+    </row>
+    <row r="69" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="10">
+        <v>67</v>
+      </c>
+      <c r="B69" s="59" t="s">
+        <v>205</v>
+      </c>
+      <c r="C69" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="D69" s="56">
+        <v>67</v>
+      </c>
+      <c r="E69" s="63" t="s">
+        <v>207</v>
+      </c>
+      <c r="F69" s="74">
+        <v>67</v>
+      </c>
+      <c r="G69" s="75" t="s">
+        <v>206</v>
+      </c>
+      <c r="H69" s="66" t="str">
+        <f t="shared" si="1"/>
+        <v>MATCH</v>
+      </c>
+      <c r="I69" s="32"/>
+    </row>
+    <row r="70" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="10">
+        <v>68</v>
+      </c>
+      <c r="B70" s="59" t="s">
+        <v>208</v>
+      </c>
+      <c r="C70" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="D70" s="56">
+        <v>68</v>
+      </c>
+      <c r="E70" s="63" t="s">
+        <v>210</v>
+      </c>
+      <c r="F70" s="74">
+        <v>68</v>
+      </c>
+      <c r="G70" s="75" t="s">
+        <v>209</v>
+      </c>
+      <c r="H70" s="66" t="str">
+        <f t="shared" si="1"/>
+        <v>MATCH</v>
+      </c>
+      <c r="I70" s="32"/>
+    </row>
+    <row r="71" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="10">
+        <v>69</v>
+      </c>
+      <c r="B71" s="59" t="s">
+        <v>211</v>
+      </c>
+      <c r="C71" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="D71" s="56">
+        <v>69</v>
+      </c>
+      <c r="E71" s="63" t="s">
+        <v>213</v>
+      </c>
+      <c r="F71" s="74">
+        <v>69</v>
+      </c>
+      <c r="G71" s="75" t="s">
+        <v>212</v>
+      </c>
+      <c r="H71" s="66" t="str">
+        <f t="shared" si="1"/>
+        <v>MATCH</v>
+      </c>
+      <c r="I71" s="32"/>
+    </row>
+    <row r="72" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="10">
+        <v>70</v>
+      </c>
+      <c r="B72" s="59" t="s">
+        <v>214</v>
+      </c>
+      <c r="C72" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="D72" s="56">
+        <v>70</v>
+      </c>
+      <c r="E72" s="63" t="s">
+        <v>216</v>
+      </c>
+      <c r="F72" s="74">
+        <v>70</v>
+      </c>
+      <c r="G72" s="75" t="s">
+        <v>215</v>
+      </c>
+      <c r="H72" s="66" t="str">
+        <f t="shared" si="1"/>
+        <v>MATCH</v>
+      </c>
+      <c r="I72" s="32"/>
+    </row>
+    <row r="73" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="10">
+        <v>71</v>
+      </c>
+      <c r="B73" s="59" t="s">
+        <v>217</v>
+      </c>
+      <c r="C73" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="D73" s="56">
+        <v>71</v>
+      </c>
+      <c r="E73" s="63" t="s">
+        <v>219</v>
+      </c>
+      <c r="F73" s="74">
+        <v>71</v>
+      </c>
+      <c r="G73" s="75" t="s">
+        <v>218</v>
+      </c>
+      <c r="H73" s="66" t="str">
+        <f t="shared" si="1"/>
+        <v>MATCH</v>
+      </c>
+      <c r="I73" s="32"/>
+    </row>
+    <row r="74" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="10">
+        <v>72</v>
+      </c>
+      <c r="B74" s="59" t="s">
+        <v>220</v>
+      </c>
+      <c r="C74" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="D74" s="56">
+        <v>72</v>
+      </c>
+      <c r="E74" s="63" t="s">
+        <v>222</v>
+      </c>
+      <c r="F74" s="74">
+        <v>72</v>
+      </c>
+      <c r="G74" s="75" t="s">
+        <v>221</v>
+      </c>
+      <c r="H74" s="66" t="str">
+        <f t="shared" si="1"/>
+        <v>MATCH</v>
+      </c>
+      <c r="I74" s="32"/>
+    </row>
+    <row r="75" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="10">
+        <v>73</v>
+      </c>
+      <c r="B75" s="59" t="s">
+        <v>223</v>
+      </c>
+      <c r="C75" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="D75" s="56">
+        <v>73</v>
+      </c>
+      <c r="E75" s="63" t="s">
+        <v>225</v>
+      </c>
+      <c r="F75" s="74">
+        <v>73</v>
+      </c>
+      <c r="G75" s="75" t="s">
+        <v>224</v>
+      </c>
+      <c r="H75" s="66" t="str">
+        <f t="shared" si="1"/>
+        <v>MATCH</v>
+      </c>
+      <c r="I75" s="32"/>
+    </row>
+    <row r="76" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="10">
+        <v>74</v>
+      </c>
+      <c r="B76" s="59" t="s">
+        <v>226</v>
+      </c>
+      <c r="C76" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="D76" s="56">
+        <v>74</v>
+      </c>
+      <c r="E76" s="63" t="s">
+        <v>228</v>
+      </c>
+      <c r="F76" s="74">
+        <v>74</v>
+      </c>
+      <c r="G76" s="75" t="s">
+        <v>227</v>
+      </c>
+      <c r="H76" s="66" t="str">
+        <f t="shared" si="1"/>
+        <v>MATCH</v>
+      </c>
+      <c r="I76" s="32"/>
+    </row>
+    <row r="77" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="10">
+        <v>75</v>
+      </c>
+      <c r="B77" s="59" t="s">
+        <v>229</v>
+      </c>
+      <c r="C77" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="D77" s="56">
+        <v>75</v>
+      </c>
+      <c r="E77" s="63" t="s">
+        <v>231</v>
+      </c>
+      <c r="F77" s="74">
+        <v>75</v>
+      </c>
+      <c r="G77" s="75" t="s">
+        <v>230</v>
+      </c>
+      <c r="H77" s="66" t="str">
+        <f t="shared" si="1"/>
+        <v>MATCH</v>
+      </c>
+      <c r="I77" s="32"/>
+    </row>
+    <row r="78" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="10">
+        <v>76</v>
+      </c>
+      <c r="B78" s="59" t="s">
+        <v>232</v>
+      </c>
+      <c r="C78" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="D78" s="56">
+        <v>76</v>
+      </c>
+      <c r="E78" s="63" t="s">
+        <v>234</v>
+      </c>
+      <c r="F78" s="74">
+        <v>76</v>
+      </c>
+      <c r="G78" s="75" t="s">
+        <v>233</v>
+      </c>
+      <c r="H78" s="66" t="str">
+        <f t="shared" si="1"/>
+        <v>MATCH</v>
+      </c>
+      <c r="I78" s="32"/>
+    </row>
+    <row r="79" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="10">
+        <v>77</v>
+      </c>
+      <c r="B79" s="59" t="s">
+        <v>235</v>
+      </c>
+      <c r="C79" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="D79" s="56">
+        <v>77</v>
+      </c>
+      <c r="E79" s="63" t="s">
+        <v>237</v>
+      </c>
+      <c r="F79" s="74">
+        <v>77</v>
+      </c>
+      <c r="G79" s="75" t="s">
+        <v>236</v>
+      </c>
+      <c r="H79" s="66" t="str">
+        <f t="shared" si="1"/>
+        <v>MATCH</v>
+      </c>
+      <c r="I79" s="32"/>
+    </row>
+    <row r="80" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="10">
+        <v>78</v>
+      </c>
+      <c r="B80" s="59" t="s">
+        <v>238</v>
+      </c>
+      <c r="C80" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="D80" s="56">
+        <v>78</v>
+      </c>
+      <c r="E80" s="63" t="s">
+        <v>240</v>
+      </c>
+      <c r="F80" s="74">
+        <v>78</v>
+      </c>
+      <c r="G80" s="75" t="s">
+        <v>239</v>
+      </c>
+      <c r="H80" s="66" t="str">
+        <f t="shared" si="1"/>
+        <v>MATCH</v>
+      </c>
+      <c r="I80" s="32"/>
+    </row>
+    <row r="81" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="10">
+        <v>79</v>
+      </c>
+      <c r="B81" s="59" t="s">
+        <v>241</v>
+      </c>
+      <c r="C81" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="D81" s="56">
+        <v>79</v>
+      </c>
+      <c r="E81" s="63" t="s">
+        <v>243</v>
+      </c>
+      <c r="F81" s="74">
+        <v>79</v>
+      </c>
+      <c r="G81" s="75" t="s">
+        <v>242</v>
+      </c>
+      <c r="H81" s="66" t="str">
+        <f t="shared" si="1"/>
+        <v>MATCH</v>
+      </c>
+      <c r="I81" s="32"/>
+    </row>
+    <row r="82" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="10">
+        <v>80</v>
+      </c>
+      <c r="B82" s="59" t="s">
+        <v>244</v>
+      </c>
+      <c r="C82" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="D82" s="56">
+        <v>80</v>
+      </c>
+      <c r="E82" s="63" t="s">
+        <v>246</v>
+      </c>
+      <c r="F82" s="74">
+        <v>80</v>
+      </c>
+      <c r="G82" s="75" t="s">
+        <v>245</v>
+      </c>
+      <c r="H82" s="66" t="str">
+        <f t="shared" si="1"/>
+        <v>MATCH</v>
+      </c>
+      <c r="I82" s="32"/>
+    </row>
+    <row r="83" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="10">
+        <v>81</v>
+      </c>
+      <c r="B83" s="59" t="s">
+        <v>247</v>
+      </c>
+      <c r="C83" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="D83" s="56">
+        <v>81</v>
+      </c>
+      <c r="E83" s="63" t="s">
+        <v>249</v>
+      </c>
+      <c r="F83" s="74">
+        <v>81</v>
+      </c>
+      <c r="G83" s="75" t="s">
+        <v>248</v>
+      </c>
+      <c r="H83" s="66" t="str">
+        <f t="shared" si="1"/>
+        <v>MATCH</v>
+      </c>
+      <c r="I83" s="32"/>
+    </row>
+    <row r="84" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="10">
+        <v>82</v>
+      </c>
+      <c r="B84" s="59" t="s">
+        <v>250</v>
+      </c>
+      <c r="C84" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="D84" s="56">
+        <v>82</v>
+      </c>
+      <c r="E84" s="63" t="s">
+        <v>252</v>
+      </c>
+      <c r="F84" s="74">
+        <v>82</v>
+      </c>
+      <c r="G84" s="75" t="s">
+        <v>251</v>
+      </c>
+      <c r="H84" s="66" t="str">
+        <f t="shared" si="1"/>
+        <v>MATCH</v>
+      </c>
+      <c r="I84" s="32"/>
+    </row>
+    <row r="85" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="10">
+        <v>83</v>
+      </c>
+      <c r="B85" s="59" t="s">
+        <v>253</v>
+      </c>
+      <c r="C85" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="D85" s="56">
+        <v>83</v>
+      </c>
+      <c r="E85" s="63" t="s">
+        <v>255</v>
+      </c>
+      <c r="F85" s="74">
+        <v>83</v>
+      </c>
+      <c r="G85" s="75" t="s">
+        <v>254</v>
+      </c>
+      <c r="H85" s="66" t="str">
+        <f t="shared" si="1"/>
+        <v>MATCH</v>
+      </c>
+      <c r="I85" s="32"/>
+    </row>
+    <row r="86" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="10">
+        <v>84</v>
+      </c>
+      <c r="B86" s="59" t="s">
+        <v>256</v>
+      </c>
+      <c r="C86" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="D86" s="56">
+        <v>84</v>
+      </c>
+      <c r="E86" s="63" t="s">
+        <v>258</v>
+      </c>
+      <c r="F86" s="74">
+        <v>84</v>
+      </c>
+      <c r="G86" s="75" t="s">
+        <v>257</v>
+      </c>
+      <c r="H86" s="66" t="str">
+        <f t="shared" si="1"/>
+        <v>MATCH</v>
+      </c>
+      <c r="I86" s="32"/>
+    </row>
+    <row r="87" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="10">
+        <v>85</v>
+      </c>
+      <c r="B87" s="59" t="s">
+        <v>259</v>
+      </c>
+      <c r="C87" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="D87" s="56">
+        <v>85</v>
+      </c>
+      <c r="E87" s="63" t="s">
+        <v>261</v>
+      </c>
+      <c r="F87" s="74">
+        <v>85</v>
+      </c>
+      <c r="G87" s="75" t="s">
+        <v>260</v>
+      </c>
+      <c r="H87" s="66" t="str">
+        <f t="shared" si="1"/>
+        <v>MATCH</v>
+      </c>
+      <c r="I87" s="32"/>
+    </row>
+    <row r="88" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="10">
+        <v>86</v>
+      </c>
+      <c r="B88" s="59" t="s">
+        <v>262</v>
+      </c>
+      <c r="C88" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="D88" s="56">
+        <v>86</v>
+      </c>
+      <c r="E88" s="63" t="s">
+        <v>264</v>
+      </c>
+      <c r="F88" s="74">
+        <v>86</v>
+      </c>
+      <c r="G88" s="75" t="s">
+        <v>263</v>
+      </c>
+      <c r="H88" s="66" t="str">
+        <f t="shared" si="1"/>
+        <v>MATCH</v>
+      </c>
+      <c r="I88" s="32"/>
+    </row>
+    <row r="89" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="10">
+        <v>87</v>
+      </c>
+      <c r="B89" s="59" t="s">
+        <v>265</v>
+      </c>
+      <c r="C89" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="D89" s="56">
+        <v>87</v>
+      </c>
+      <c r="E89" s="63" t="s">
+        <v>267</v>
+      </c>
+      <c r="F89" s="74">
+        <v>87</v>
+      </c>
+      <c r="G89" s="75" t="s">
+        <v>266</v>
+      </c>
+      <c r="H89" s="66" t="str">
+        <f t="shared" si="1"/>
+        <v>MATCH</v>
+      </c>
+      <c r="I89" s="32"/>
+    </row>
+    <row r="90" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="10">
+        <v>88</v>
+      </c>
+      <c r="B90" s="59" t="s">
+        <v>268</v>
+      </c>
+      <c r="C90" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="D90" s="56">
+        <v>88</v>
+      </c>
+      <c r="E90" s="63" t="s">
+        <v>270</v>
+      </c>
+      <c r="F90" s="74">
+        <v>88</v>
+      </c>
+      <c r="G90" s="75" t="s">
+        <v>269</v>
+      </c>
+      <c r="H90" s="66" t="str">
+        <f t="shared" si="1"/>
+        <v>MATCH</v>
+      </c>
+      <c r="I90" s="32"/>
+    </row>
+    <row r="91" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="10">
+        <v>89</v>
+      </c>
+      <c r="B91" s="59" t="s">
+        <v>271</v>
+      </c>
+      <c r="C91" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="D91" s="56">
+        <v>89</v>
+      </c>
+      <c r="E91" s="63" t="s">
+        <v>273</v>
+      </c>
+      <c r="F91" s="74">
+        <v>89</v>
+      </c>
+      <c r="G91" s="75" t="s">
+        <v>272</v>
+      </c>
+      <c r="H91" s="66" t="str">
+        <f t="shared" si="1"/>
+        <v>MATCH</v>
+      </c>
+      <c r="I91" s="32"/>
+    </row>
+    <row r="92" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="10">
+        <v>90</v>
+      </c>
+      <c r="B92" s="59" t="s">
+        <v>274</v>
+      </c>
+      <c r="C92" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="D92" s="56">
+        <v>90</v>
+      </c>
+      <c r="E92" s="63" t="s">
+        <v>276</v>
+      </c>
+      <c r="F92" s="74">
+        <v>90</v>
+      </c>
+      <c r="G92" s="75" t="s">
+        <v>275</v>
+      </c>
+      <c r="H92" s="66" t="str">
+        <f t="shared" si="1"/>
+        <v>MATCH</v>
+      </c>
+      <c r="I92" s="32"/>
+    </row>
+    <row r="93" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="10">
+        <v>91</v>
+      </c>
+      <c r="B93" s="59" t="s">
+        <v>277</v>
+      </c>
+      <c r="C93" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="D93" s="56">
+        <v>91</v>
+      </c>
+      <c r="E93" s="63" t="s">
+        <v>279</v>
+      </c>
+      <c r="F93" s="74">
+        <v>91</v>
+      </c>
+      <c r="G93" s="75" t="s">
+        <v>278</v>
+      </c>
+      <c r="H93" s="66" t="str">
+        <f t="shared" si="1"/>
+        <v>MATCH</v>
+      </c>
+      <c r="I93" s="32"/>
+    </row>
+    <row r="94" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="10">
+        <v>92</v>
+      </c>
+      <c r="B94" s="59" t="s">
+        <v>280</v>
+      </c>
+      <c r="C94" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="D94" s="56">
+        <v>92</v>
+      </c>
+      <c r="E94" s="63" t="s">
+        <v>282</v>
+      </c>
+      <c r="F94" s="74">
+        <v>92</v>
+      </c>
+      <c r="G94" s="75" t="s">
+        <v>281</v>
+      </c>
+      <c r="H94" s="66" t="str">
+        <f t="shared" si="1"/>
+        <v>MATCH</v>
+      </c>
+      <c r="I94" s="32"/>
+    </row>
+    <row r="95" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="10">
+        <v>93</v>
+      </c>
+      <c r="B95" s="59" t="s">
+        <v>283</v>
+      </c>
+      <c r="C95" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="D95" s="56">
+        <v>93</v>
+      </c>
+      <c r="E95" s="63" t="s">
+        <v>285</v>
+      </c>
+      <c r="F95" s="74">
+        <v>93</v>
+      </c>
+      <c r="G95" s="75" t="s">
+        <v>284</v>
+      </c>
+      <c r="H95" s="66" t="str">
+        <f t="shared" si="1"/>
+        <v>MATCH</v>
+      </c>
+      <c r="I95" s="32"/>
+    </row>
+    <row r="96" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="10">
+        <v>94</v>
+      </c>
+      <c r="B96" s="59" t="s">
+        <v>286</v>
+      </c>
+      <c r="C96" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="D96" s="56">
+        <v>94</v>
+      </c>
+      <c r="E96" s="63" t="s">
+        <v>288</v>
+      </c>
+      <c r="F96" s="74">
+        <v>94</v>
+      </c>
+      <c r="G96" s="75" t="s">
+        <v>287</v>
+      </c>
+      <c r="H96" s="66" t="str">
+        <f t="shared" si="1"/>
+        <v>MATCH</v>
+      </c>
+      <c r="I96" s="32"/>
+    </row>
+    <row r="97" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="10">
+        <v>95</v>
+      </c>
+      <c r="B97" s="59" t="s">
+        <v>289</v>
+      </c>
+      <c r="C97" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="D97" s="56">
+        <v>95</v>
+      </c>
+      <c r="E97" s="63" t="s">
+        <v>291</v>
+      </c>
+      <c r="F97" s="74">
+        <v>95</v>
+      </c>
+      <c r="G97" s="75" t="s">
+        <v>290</v>
+      </c>
+      <c r="H97" s="66" t="str">
+        <f t="shared" si="1"/>
+        <v>MATCH</v>
+      </c>
+      <c r="I97" s="32"/>
+    </row>
+    <row r="98" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="10">
+        <v>96</v>
+      </c>
+      <c r="B98" s="59" t="s">
+        <v>292</v>
+      </c>
+      <c r="C98" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="D98" s="56">
+        <v>96</v>
+      </c>
+      <c r="E98" s="63" t="s">
+        <v>294</v>
+      </c>
+      <c r="F98" s="74">
+        <v>96</v>
+      </c>
+      <c r="G98" s="75" t="s">
+        <v>293</v>
+      </c>
+      <c r="H98" s="66" t="str">
+        <f t="shared" si="1"/>
+        <v>MATCH</v>
+      </c>
+      <c r="I98" s="32"/>
+    </row>
+    <row r="99" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="10">
+        <v>97</v>
+      </c>
+      <c r="B99" s="59" t="s">
+        <v>295</v>
+      </c>
+      <c r="C99" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="D99" s="56">
+        <v>97</v>
+      </c>
+      <c r="E99" s="63" t="s">
+        <v>297</v>
+      </c>
+      <c r="F99" s="74">
+        <v>97</v>
+      </c>
+      <c r="G99" s="75" t="s">
+        <v>296</v>
+      </c>
+      <c r="H99" s="66" t="str">
+        <f t="shared" si="1"/>
+        <v>MATCH</v>
+      </c>
+      <c r="I99" s="32"/>
+    </row>
+    <row r="100" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="10">
+        <v>98</v>
+      </c>
+      <c r="B100" s="59" t="s">
+        <v>298</v>
+      </c>
+      <c r="C100" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="D100" s="56">
+        <v>98</v>
+      </c>
+      <c r="E100" s="63" t="s">
+        <v>300</v>
+      </c>
+      <c r="F100" s="74">
+        <v>98</v>
+      </c>
+      <c r="G100" s="75" t="s">
+        <v>299</v>
+      </c>
+      <c r="H100" s="66" t="str">
+        <f t="shared" si="1"/>
+        <v>MATCH</v>
+      </c>
+      <c r="I100" s="32"/>
+    </row>
+    <row r="101" spans="1:9" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="15">
+        <v>99</v>
+      </c>
+      <c r="B101" s="60" t="s">
+        <v>301</v>
+      </c>
+      <c r="C101" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="D101" s="61">
+        <v>99</v>
+      </c>
+      <c r="E101" s="64" t="s">
+        <v>303</v>
+      </c>
+      <c r="F101" s="76">
+        <v>99</v>
+      </c>
+      <c r="G101" s="77" t="s">
+        <v>302</v>
+      </c>
+      <c r="H101" s="67" t="str">
+        <f t="shared" si="1"/>
+        <v>MATCH</v>
+      </c>
+      <c r="I101" s="33"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A2:I2" xr:uid="{E09248A0-9399-4E82-80C3-FD48424CA98D}"/>
+  <mergeCells count="2">
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="B1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>